--- a/input_spreadsheets/Tanzania/regions/InputForCode_Kusini_Pemba.xlsx
+++ b/input_spreadsheets/Tanzania/regions/InputForCode_Kusini_Pemba.xlsx
@@ -8,43 +8,62 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/Github Projects/Nutrition/input_spreadsheets/Tanzania/regions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{85F30A4B-B3AA-F749-A904-CBFEFB996D81}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{61A3EC06-2CC9-CE4D-A2C1-056E301F057F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="20740" windowHeight="11760" tabRatio="883" firstSheet="26" activeTab="30" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20740" windowHeight="11760" tabRatio="883" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Baseline year demographics" sheetId="1" r:id="rId1"/>
-    <sheet name="Demographic projections" sheetId="2" r:id="rId2"/>
-    <sheet name="Annual prevalence" sheetId="46" r:id="rId3"/>
-    <sheet name="Causes of death" sheetId="4" r:id="rId4"/>
-    <sheet name="Distributions" sheetId="5" r:id="rId5"/>
-    <sheet name="Incidence of conditions" sheetId="7" r:id="rId6"/>
-    <sheet name="Prevalence of anaemia" sheetId="29" r:id="rId7"/>
-    <sheet name="Distribution births" sheetId="36" r:id="rId8"/>
-    <sheet name="Birth outcomes &amp; risks" sheetId="6" r:id="rId9"/>
-    <sheet name="Relative risks" sheetId="26" r:id="rId10"/>
-    <sheet name="Odds ratios" sheetId="27" r:id="rId11"/>
-    <sheet name="IYCF package odds ratios" sheetId="32" r:id="rId12"/>
-    <sheet name="IYCF packages" sheetId="33" r:id="rId13"/>
-    <sheet name="IYCF cost &amp; coverage" sheetId="35" r:id="rId14"/>
-    <sheet name="Appropriate breastfeeding" sheetId="19" r:id="rId15"/>
-    <sheet name="Programs birth outcomes" sheetId="22" r:id="rId16"/>
-    <sheet name="Programs anaemia" sheetId="30" r:id="rId17"/>
-    <sheet name="Programs wasting" sheetId="31" r:id="rId18"/>
-    <sheet name="Programs for children" sheetId="28" r:id="rId19"/>
-    <sheet name="Programs family planning" sheetId="34" r:id="rId20"/>
-    <sheet name="Programs for PW" sheetId="38" r:id="rId21"/>
-    <sheet name="Programs birth age" sheetId="37" r:id="rId22"/>
-    <sheet name="Programs target population" sheetId="21" r:id="rId23"/>
-    <sheet name="Programs impacted population" sheetId="39" r:id="rId24"/>
-    <sheet name="Program dependencies" sheetId="40" r:id="rId25"/>
-    <sheet name="Program risk areas" sheetId="41" r:id="rId26"/>
-    <sheet name="Population risk areas" sheetId="42" r:id="rId27"/>
-    <sheet name="Programs cost and coverage" sheetId="20" r:id="rId28"/>
-    <sheet name="Programs annual spending" sheetId="43" r:id="rId29"/>
-    <sheet name="Reference programs" sheetId="44" r:id="rId30"/>
-    <sheet name="Programs to include" sheetId="45" r:id="rId31"/>
+    <sheet name="Expenditure &amp; budget" sheetId="47" r:id="rId1"/>
+    <sheet name="Baseline year demographics" sheetId="1" r:id="rId2"/>
+    <sheet name="Demographic projections" sheetId="2" r:id="rId3"/>
+    <sheet name="Annual prevalence" sheetId="46" r:id="rId4"/>
+    <sheet name="Causes of death" sheetId="4" r:id="rId5"/>
+    <sheet name="Distributions" sheetId="5" r:id="rId6"/>
+    <sheet name="Incidence of conditions" sheetId="7" r:id="rId7"/>
+    <sheet name="Prevalence of anaemia" sheetId="29" r:id="rId8"/>
+    <sheet name="Distribution births" sheetId="36" r:id="rId9"/>
+    <sheet name="Birth outcomes &amp; risks" sheetId="6" r:id="rId10"/>
+    <sheet name="Relative risks" sheetId="26" r:id="rId11"/>
+    <sheet name="Odds ratios" sheetId="27" r:id="rId12"/>
+    <sheet name="IYCF package odds ratios" sheetId="32" r:id="rId13"/>
+    <sheet name="IYCF packages" sheetId="33" r:id="rId14"/>
+    <sheet name="IYCF cost &amp; coverage" sheetId="35" r:id="rId15"/>
+    <sheet name="Appropriate breastfeeding" sheetId="19" r:id="rId16"/>
+    <sheet name="Programs birth outcomes" sheetId="22" r:id="rId17"/>
+    <sheet name="Programs anaemia" sheetId="30" r:id="rId18"/>
+    <sheet name="Programs wasting" sheetId="31" r:id="rId19"/>
+    <sheet name="Programs for children" sheetId="28" r:id="rId20"/>
+    <sheet name="Programs family planning" sheetId="34" r:id="rId21"/>
+    <sheet name="Programs for PW" sheetId="38" r:id="rId22"/>
+    <sheet name="Programs birth age" sheetId="37" r:id="rId23"/>
+    <sheet name="Programs target population" sheetId="21" r:id="rId24"/>
+    <sheet name="Programs impacted population" sheetId="39" r:id="rId25"/>
+    <sheet name="Program dependencies" sheetId="40" r:id="rId26"/>
+    <sheet name="Program risk areas" sheetId="41" r:id="rId27"/>
+    <sheet name="Population risk areas" sheetId="42" r:id="rId28"/>
+    <sheet name="Programs cost and coverage" sheetId="20" r:id="rId29"/>
+    <sheet name="Programs annual spending" sheetId="43" r:id="rId30"/>
+    <sheet name="Reference programs" sheetId="44" r:id="rId31"/>
+    <sheet name="Programs to include" sheetId="45" r:id="rId32"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId33"/>
+  </externalReferences>
+  <definedNames>
+    <definedName name="FPCov">'[1]Programs cost and coverage'!$B$6</definedName>
+    <definedName name="FPunmetNeed">'[1]Baseline year demographics'!$C$11</definedName>
+    <definedName name="FracEatingWheat">'[1]Baseline year demographics'!$C$27</definedName>
+    <definedName name="FracEatMaize">'[1]Baseline year demographics'!$C$28</definedName>
+    <definedName name="FracEatRice">'[1]Baseline year demographics'!$C$26</definedName>
+    <definedName name="FracPoor">'[1]Baseline year demographics'!$C$7</definedName>
+    <definedName name="FracRiskMalaria">'[1]Baseline year demographics'!$C$8</definedName>
+    <definedName name="FracSchoolAttendance">'[1]Baseline year demographics'!$C$6</definedName>
+    <definedName name="NumNonPW">'[1]Baseline year demographics'!$C$38:$C$41</definedName>
+    <definedName name="NumPW">'[1]Baseline year demographics'!$C$5</definedName>
+    <definedName name="PWDist">'[1]Baseline year demographics'!$C$50:$C$53</definedName>
+    <definedName name="PWPop">'[1]Baseline year demographics'!$C$44:$C$47</definedName>
+    <definedName name="WRAPop">'[1]Baseline year demographics'!$C$32:$C$35</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -58,12 +77,9 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Sam</author>
-    <author>Janka Petravic</author>
-    <author>Rowan</author>
-    <author xml:space="preserve"> Janka Petravic</author>
   </authors>
   <commentList>
-    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{D31101F7-04AD-B94B-8591-3E83DB6EC313}">
       <text>
         <r>
           <rPr>
@@ -92,11 +108,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>not sure this is needed anymore</t>
+          <t>Ensures that the 'current spending' value is equal to this.</t>
         </r>
       </text>
     </comment>
-    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{BB4868E8-F21F-E54A-8E07-5A2E2BE9588B}">
       <text>
         <r>
           <rPr>
@@ -125,348 +141,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>fraction of women with secondary education</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B8" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Fraction food insecure in the target population (here the lowest 2 wealth quintiles)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C8" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:
-Regional data  N/A, calculated from DHS wealth quintiles_x000D_
-_x000D_
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Sam:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>per 1,000 live births</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B20" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Fraction of pregnancies ending in spontaneous abortion</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B21" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Number of stillbirths per 1000 TOTAL births</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B22" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-LiST has lower values for all mortalities based on UN Inter-Agency Group for child mortality estimation.
-UN IA GCME estimate: 18.8</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C22" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-TDHS 2015-16</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B23" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-GCME estimate from LiST:  35.2</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C23" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-TDHS 2015-16</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B24" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-GCME estimate from LiST: 48.7</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C24" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-TDHS 2015-16</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C26" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Guesses</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A52" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Should add up to 1</t>
+          <t>Total funds that are available for program allocation</t>
         </r>
       </text>
     </comment>
@@ -478,9 +153,10 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Sam</author>
+    <author>Janka Petravic</author>
   </authors>
   <commentList>
-    <comment ref="A19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000001000000}">
+    <comment ref="A6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000001000000}">
       <text>
         <r>
           <rPr>
@@ -500,7 +176,211 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-We currently do not have 'appropriate complementary feeding' data to use, so this does nothing.</t>
+May not need these beyond calculation below</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F12" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+LiST: 1.11</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000003000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+This calculation 'dilutes' OR so that we cover 'everyone' with IYCF, not just frac poor</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000004000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nick had these in the params documentation</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000005000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>This assumes we deliver PPCF with education to the poor</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000006000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+This assumes we deliver PPCF with education to the poor</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000007000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>This assumes we deliver PPCF with education to the poor</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-00000A000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Assumed same as stunting</t>
         </r>
       </text>
     </comment>
@@ -514,7 +394,7 @@
     <author>Sam</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0C00-000001000000}">
+    <comment ref="A19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000001000000}">
       <text>
         <r>
           <rPr>
@@ -534,26 +414,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-If user wants this, it must be checked for </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>all populations</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> b/c they are all targetted at once.</t>
+We currently do not have 'appropriate complementary feeding' data to use, so this does nothing.</t>
         </r>
       </text>
     </comment>
@@ -565,16 +426,15 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Sam</author>
-    <author>Nick</author>
   </authors>
   <commentList>
-    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0D00-000001000000}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0C00-000001000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="10"/>
-            <color rgb="FF000000"/>
+            <color indexed="81"/>
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
@@ -583,87 +443,31 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color rgb="FF000000"/>
+            <color indexed="81"/>
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>1.5*unit cost of BFP</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D8" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0D00-000002000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nick:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Cost of BF + CFE for Tanzania</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0D00-000003000000}">
-      <text>
+If user wants this, it must be checked for </t>
+        </r>
         <r>
           <rPr>
             <b/>
             <sz val="10"/>
-            <color rgb="FF000000"/>
+            <color indexed="81"/>
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t>Sam:</t>
+          <t>all populations</t>
         </r>
         <r>
           <rPr>
             <sz val="10"/>
-            <color rgb="FF000000"/>
+            <color indexed="81"/>
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Totally fictional</t>
+          <t xml:space="preserve"> b/c they are all targetted at once.</t>
         </r>
       </text>
     </comment>
@@ -674,124 +478,28 @@
 <file path=xl/comments13.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author xml:space="preserve"> Janka Petravic</author>
-    <author>Microsoft Office User</author>
+    <author>Sam</author>
+    <author>Nick</author>
   </authors>
   <commentList>
-    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0F00-000001000000}">
+    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0D00-000001000000}">
       <text>
         <r>
           <rPr>
             <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Poor pregnant women - all target population</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C13" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0F00-000002000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Microsoft Office User:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-% at risk from malaria</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D13" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0F00-000003000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Microsoft Office User:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-% at risk from malaria</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C15" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0F00-000004000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Microsoft Office User:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-% at risk from malaria</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D15" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0F00-000005000000}">
-      <text>
-        <r>
-          <rPr>
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Microsoft Office User:</t>
+          </rPr>
+          <t>Sam:</t>
         </r>
         <r>
           <rPr>
             <sz val="10"/>
+            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -799,11 +507,77 @@
         <r>
           <rPr>
             <sz val="10"/>
+            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>% at risk from malaria</t>
+          </rPr>
+          <t>1.5*unit cost of BFP</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D8" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0D00-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nick:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Cost of BF + CFE for Tanzania</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0D00-000003000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Totally fictional</t>
         </r>
       </text>
     </comment>
@@ -816,10 +590,9 @@
   <authors>
     <author xml:space="preserve"> Janka Petravic</author>
     <author>Microsoft Office User</author>
-    <author>Ruth</author>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1000-000001000000}">
+    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0F00-000001000000}">
       <text>
         <r>
           <rPr>
@@ -839,57 +612,11 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Mutually exclusive with AMS, target = 1 - coverage of AMS - pregnant at risk of malaria not receiving IPTp or bednets</t>
+Poor pregnant women - all target population</t>
         </r>
       </text>
     </comment>
-    <comment ref="L2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1000-000002000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Microsoft Office User: 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">This RR is from the book.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1000-000003000000}">
+    <comment ref="C13" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0F00-000002000000}">
       <text>
         <r>
           <rPr>
@@ -899,9 +626,7 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t>Microsoft Office User: 
-This RR is from the book.
-LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
+          <t>Microsoft Office User:</t>
         </r>
         <r>
           <rPr>
@@ -911,11 +636,11 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-</t>
+% at risk from malaria</t>
         </r>
       </text>
     </comment>
-    <comment ref="N2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1000-000004000000}">
+    <comment ref="D13" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0F00-000003000000}">
       <text>
         <r>
           <rPr>
@@ -925,9 +650,7 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t>Microsoft Office User: 
-This RR is from the book.
-LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
+          <t>Microsoft Office User:</t>
         </r>
         <r>
           <rPr>
@@ -937,11 +660,11 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-</t>
+% at risk from malaria</t>
         </r>
       </text>
     </comment>
-    <comment ref="O2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1000-000005000000}">
+    <comment ref="C15" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0F00-000004000000}">
       <text>
         <r>
           <rPr>
@@ -951,9 +674,7 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t>Microsoft Office User: 
-This RR is from the book.
-LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
+          <t>Microsoft Office User:</t>
         </r>
         <r>
           <rPr>
@@ -963,488 +684,40 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-</t>
+% at risk from malaria</t>
         </r>
       </text>
     </comment>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1000-000006000000}">
+    <comment ref="D15" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0F00-000005000000}">
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Mutually exclusive with AMS, target = 1 - coverage of AMS - pregnant at risk of malaria not receiving IPTp or bednets</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1000-000007000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
             <sz val="10"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-          </rPr>
-          <t>Microsoft Office User: 
-This RR is from the book.
-LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
         </r>
         <r>
           <rPr>
             <sz val="10"/>
-            <color indexed="81"/>
             <rFont val="Calibri"/>
             <family val="2"/>
+            <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">
 </t>
         </r>
-      </text>
-    </comment>
-    <comment ref="M3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1000-000008000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
+        <r>
+          <rPr>
             <sz val="10"/>
-            <color indexed="81"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-          </rPr>
-          <t>Microsoft Office User: 
-This RR is from the book.
-LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1000-000009000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Microsoft Office User: 
-This RR is from the book.
-LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1000-00000A000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Microsoft Office User: 
-This RR is from the book.
-LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L4" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1000-00000B000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Microsoft Office User: 
-This RR is from the book.
-LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M4" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1000-00000C000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Microsoft Office User: 
-This RR is from the book.
-LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N4" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1000-00000D000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Microsoft Office User: 
-This RR is from the book.
-LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O4" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1000-00000E000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Microsoft Office User: 
-This RR is from the book.
-LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L5" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1000-00000F000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Microsoft Office User: 
-This RR is from the book.
-LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M5" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1000-000010000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Microsoft Office User: 
-This RR is from the book.
-LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N5" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1000-000011000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Microsoft Office User: 
-This RR is from the book.
-LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O5" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1000-000012000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Microsoft Office User: 
-This RR is from the book.
-LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B23" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1000-000013000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Microsoft Office User:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Source: WHO guidelines on sprinkles</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E23" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1000-000014000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Microsoft Office User:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Effect on iron-deficiency anemia</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E24" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1000-000015000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Microsoft Office User:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Effect on iron-deficiency anemia</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B25" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1000-000016000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Microsoft Office User:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Only in malaria risk</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E27" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-1000-000017000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Ruth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-made this number up
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B28" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1000-000018000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Microsoft Office User:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Same effect as iron fortification</t>
+            <scheme val="minor"/>
+          </rPr>
+          <t>% at risk from malaria</t>
         </r>
       </text>
     </comment>
@@ -1455,44 +728,82 @@
 <file path=xl/comments15.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>Sam</author>
+    <author xml:space="preserve"> Janka Petravic</author>
     <author>Microsoft Office User</author>
+    <author>Ruth</author>
   </authors>
   <commentList>
-    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1200-000001000000}">
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1000-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Mutually exclusive with AMS, target = 1 - coverage of AMS - pregnant at risk of malaria not receiving IPTp or bednets</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1000-000002000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="10"/>
             <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Sam:</t>
-        </r>
-        <r>
-          <rPr>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Microsoft Office User: 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
             <sz val="10"/>
             <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">This RR is from the book.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
         </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Used RR from params and AF above</t>
-        </r>
       </text>
     </comment>
-    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1200-000002000000}">
+    <comment ref="M2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -1502,7 +813,9 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t>Sam:</t>
+          <t>Microsoft Office User: 
+This RR is from the book.
+LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
         </r>
         <r>
           <rPr>
@@ -1512,44 +825,11 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Probably can delete</t>
+</t>
         </r>
       </text>
     </comment>
-    <comment ref="F7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1200-000003000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Sam:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nick had RR in params doc, I fixed AF and solved for Eff</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F21" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1200-000004000000}">
+    <comment ref="N2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -1559,7 +839,9 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t>Microsoft Office User:</t>
+          <t>Microsoft Office User: 
+This RR is from the book.
+LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
         </r>
         <r>
           <rPr>
@@ -1569,11 +851,11 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-WHO statement</t>
+</t>
         </r>
       </text>
     </comment>
-    <comment ref="D22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1200-000005000000}">
+    <comment ref="O2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -1583,7 +865,9 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t>Sam:</t>
+          <t>Microsoft Office User: 
+This RR is from the book.
+LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
         </r>
         <r>
           <rPr>
@@ -1593,11 +877,35 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-LiST</t>
+</t>
         </r>
       </text>
     </comment>
-    <comment ref="D23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1200-000006000000}">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1000-000006000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Mutually exclusive with AMS, target = 1 - coverage of AMS - pregnant at risk of malaria not receiving IPTp or bednets</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -1607,7 +915,9 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t>Sam:</t>
+          <t>Microsoft Office User: 
+This RR is from the book.
+LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
         </r>
         <r>
           <rPr>
@@ -1617,73 +927,438 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-LiST</t>
+</t>
         </r>
       </text>
     </comment>
-    <comment ref="D43" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1200-000007000000}">
+    <comment ref="M3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1000-000008000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="10"/>
-            <color rgb="FF000000"/>
+            <color indexed="81"/>
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t>Sam:</t>
+          <t>Microsoft Office User: 
+This RR is from the book.
+LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
         </r>
         <r>
           <rPr>
             <sz val="10"/>
-            <color rgb="FF000000"/>
+            <color indexed="81"/>
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
         </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>frac zinc deficient</t>
-        </r>
       </text>
     </comment>
-    <comment ref="D46" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1200-000008000000}">
+    <comment ref="N3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1000-000009000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="10"/>
-            <color rgb="FF000000"/>
+            <color indexed="81"/>
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t>Sam:</t>
+          <t>Microsoft Office User: 
+This RR is from the book.
+LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
         </r>
         <r>
           <rPr>
             <sz val="10"/>
-            <color rgb="FF000000"/>
+            <color indexed="81"/>
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
         </r>
-        <r>
-          <rPr>
+      </text>
+    </comment>
+    <comment ref="O3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1000-00000A000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
             <sz val="10"/>
-            <color rgb="FF000000"/>
+            <color indexed="81"/>
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t>frac zinc deficient</t>
+          <t>Microsoft Office User: 
+This RR is from the book.
+LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L4" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1000-00000B000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User: 
+This RR is from the book.
+LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M4" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1000-00000C000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User: 
+This RR is from the book.
+LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N4" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1000-00000D000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User: 
+This RR is from the book.
+LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O4" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1000-00000E000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User: 
+This RR is from the book.
+LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L5" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1000-00000F000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User: 
+This RR is from the book.
+LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M5" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1000-000010000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User: 
+This RR is from the book.
+LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N5" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1000-000011000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User: 
+This RR is from the book.
+LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O5" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1000-000012000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User: 
+This RR is from the book.
+LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B23" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1000-000013000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Source: WHO guidelines on sprinkles</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E23" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1000-000014000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Effect on iron-deficiency anemia</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E24" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1000-000015000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Effect on iron-deficiency anemia</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B25" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1000-000016000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Only in malaria risk</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E27" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-1000-000017000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ruth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+made this number up
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B28" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1000-000018000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Same effect as iron fortification</t>
         </r>
       </text>
     </comment>
@@ -1694,30 +1369,235 @@
 <file path=xl/comments16.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>Ruth</author>
+    <author>Sam</author>
+    <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1300-000001000000}">
+    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1200-000001000000}">
       <text>
         <r>
           <rPr>
             <b/>
-            <sz val="9"/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Used RR from params and AF above</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1200-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
             <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Ruth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
             <color indexed="81"/>
-            <rFont val="Arial"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Ruth made these numbers up</t>
+Probably can delete</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1200-000003000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nick had RR in params doc, I fixed AF and solved for Eff</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F21" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1200-000004000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+WHO statement</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1200-000005000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+LiST</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1200-000006000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+LiST</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D43" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1200-000007000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>frac zinc deficient</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D46" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1200-000008000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>frac zinc deficient</t>
         </r>
       </text>
     </comment>
@@ -1728,11 +1608,10 @@
 <file path=xl/comments17.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author xml:space="preserve"> Janka Petravic</author>
     <author>Ruth</author>
   </authors>
   <commentList>
-    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1500-000001000000}">
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -1742,7 +1621,7 @@
             <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
+          <t>Ruth:</t>
         </r>
         <r>
           <rPr>
@@ -1752,33 +1631,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-assume target pop is WRA &lt;18 years, then this is just  birth age distribution for
- this age
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1500-000002000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Ruth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-made numbers up for effectiveness</t>
+Ruth made these numbers up</t>
         </r>
       </text>
     </comment>
@@ -1789,84 +1642,11 @@
 <file path=xl/comments18.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>Sam</author>
     <author xml:space="preserve"> Janka Petravic</author>
+    <author>Ruth</author>
   </authors>
   <commentList>
-    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1600-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Sam:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Frac poor
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1600-000002000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Sam:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Fraction poor</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1600-000003000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Sam:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Frac food insecure</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B20" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1600-000004000000}">
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1500-000001000000}">
       <text>
         <r>
           <rPr>
@@ -1886,11 +1666,13 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Mutually exclusive with AMS, target = 1 - coverage of AMS - pregnant at risk of malaria not receiving IPTp or bednets</t>
+assume target pop is WRA &lt;18 years, then this is just  birth age distribution for
+ this age
+</t>
         </r>
       </text>
     </comment>
-    <comment ref="B21" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1600-000005000000}">
+    <comment ref="C3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1500-000002000000}">
       <text>
         <r>
           <rPr>
@@ -1900,7 +1682,7 @@
             <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
+          <t>Ruth:</t>
         </r>
         <r>
           <rPr>
@@ -1910,65 +1692,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Also brestfeeding women up to 6 months?</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A23" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1600-000006000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Coverage of these interventions is mutually exclusive</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B50" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1600-000007000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Sam:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Exposed to malaria
-</t>
+made numbers up for effectiveness</t>
         </r>
       </text>
     </comment>
@@ -1980,11 +1704,10 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Sam</author>
-    <author>Microsoft Office User</author>
     <author xml:space="preserve"> Janka Petravic</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1800-000001000000}">
+    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1600-000001000000}">
       <text>
         <r>
           <rPr>
@@ -2004,11 +1727,12 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-When one intervention cannot exceed 1-cov of another</t>
+Frac poor
+</t>
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1800-000002000000}">
+    <comment ref="B11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1600-000002000000}">
       <text>
         <r>
           <rPr>
@@ -2028,11 +1752,11 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-When one program cannot exceed cov of another</t>
+Fraction poor</t>
         </r>
       </text>
     </comment>
-    <comment ref="A7" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1800-000003000000}">
+    <comment ref="B16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1600-000003000000}">
       <text>
         <r>
           <rPr>
@@ -2042,7 +1766,7 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t>Microsoft Office User:</t>
+          <t>Sam:</t>
         </r>
         <r>
           <rPr>
@@ -2052,11 +1776,11 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Same effect as iron fortification</t>
+Frac food insecure</t>
         </r>
       </text>
     </comment>
-    <comment ref="A12" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-1800-000004000000}">
+    <comment ref="B20" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1600-000004000000}">
       <text>
         <r>
           <rPr>
@@ -2076,11 +1800,11 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-There is no unit cost for this to impact the budget.</t>
+Mutually exclusive with AMS, target = 1 - coverage of AMS - pregnant at risk of malaria not receiving IPTp or bednets</t>
         </r>
       </text>
     </comment>
-    <comment ref="A13" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-1800-000005000000}">
+    <comment ref="B21" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1600-000005000000}">
       <text>
         <r>
           <rPr>
@@ -2100,11 +1824,11 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-There is no unit cost for this to impact the budget.</t>
+Also brestfeeding women up to 6 months?</t>
         </r>
       </text>
     </comment>
-    <comment ref="A22" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-1800-000006000000}">
+    <comment ref="A23" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1600-000006000000}">
       <text>
         <r>
           <rPr>
@@ -2124,31 +1848,41 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Also brestfeeding women up to 6 months?</t>
+Coverage of these interventions is mutually exclusive</t>
         </r>
       </text>
     </comment>
-    <comment ref="A24" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-1800-000007000000}">
+    <comment ref="B50" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1600-000007000000}">
       <text>
         <r>
           <rPr>
             <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Mutually exclusive with AMS, target = 1 - coverage of AMS - pregnant at risk of malaria not receiving IPTp or bednets</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Exposed to malaria
+</t>
         </r>
       </text>
     </comment>
@@ -2159,10 +1893,194 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>Sam</author>
+    <author>Janka Petravic</author>
+    <author>Rowan</author>
     <author xml:space="preserve"> Janka Petravic</author>
   </authors>
   <commentList>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not sure this is needed anymore</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>fraction of women with secondary education</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B8" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>Fraction food insecure in the target population (here the lowest 2 wealth quintiles)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C8" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:
+Regional data  N/A, calculated from DHS wealth quintiles_x000D_
+_x000D_
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>per 1,000 live births</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B20" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>Fraction of pregnancies ending in spontaneous abortion</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B21" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -2182,11 +2100,11 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-calculated</t>
+Number of stillbirths per 1000 TOTAL births</t>
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="B22" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -2206,11 +2124,12 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-calculated</t>
+LiST has lower values for all mortalities based on UN Inter-Agency Group for child mortality estimation.
+UN IA GCME estimate: 18.8</t>
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
+    <comment ref="C22" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -2230,7 +2149,160 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-calculated</t>
+TDHS 2015-16</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B23" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+GCME estimate from LiST:  35.2</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C23" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+TDHS 2015-16</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B24" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+GCME estimate from LiST: 48.7</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C24" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+TDHS 2015-16</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C26" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>Guesses</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A52" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Should add up to 1</t>
         </r>
       </text>
     </comment>
@@ -2239,6 +2311,186 @@
 </file>
 
 <file path=xl/comments20.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Sam</author>
+    <author>Microsoft Office User</author>
+    <author xml:space="preserve"> Janka Petravic</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1800-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+When one intervention cannot exceed 1-cov of another</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1800-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+When one program cannot exceed cov of another</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A7" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1800-000003000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Same effect as iron fortification</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A12" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-1800-000004000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+There is no unit cost for this to impact the budget.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A13" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-1800-000005000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+There is no unit cost for this to impact the budget.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A22" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-1800-000006000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Also brestfeeding women up to 6 months?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A24" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-1800-000007000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Mutually exclusive with AMS, target = 1 - coverage of AMS - pregnant at risk of malaria not receiving IPTp or bednets</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments21.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Ruth</author>
@@ -3031,51 +3283,6 @@
             <family val="2"/>
           </rPr>
           <t>DHS</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments21.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Sam</author>
-  </authors>
-  <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1C00-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <i/>
-            <sz val="12"/>
-            <color rgb="FF7F7F7F"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Sam:</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="12"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="12"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>This is the calibration year and uses baseline coverage.</t>
         </r>
       </text>
     </comment>
@@ -3089,6 +3296,51 @@
     <author>Sam</author>
   </authors>
   <commentList>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1C00-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="12"/>
+            <color rgb="FF7F7F7F"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>This is the calibration year and uses baseline coverage.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments23.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Sam</author>
+  </authors>
+  <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1D00-000001000000}">
       <text>
         <r>
@@ -3120,30 +3372,78 @@
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>Sam</author>
+    <author xml:space="preserve"> Janka Petravic</author>
   </authors>
   <commentList>
-    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
             <b/>
-            <sz val="10"/>
+            <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Sam:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="Calibri"/>
+            <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-We don't model deaths through severe diarrhoea specifically, only deaths through diarrhoea</t>
+calculated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+calculated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+calculated</t>
         </r>
       </text>
     </comment>
@@ -3154,222 +3454,30 @@
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author xml:space="preserve"> Janka Petravic</author>
+    <author>Sam</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
+    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
             <b/>
-            <sz val="9"/>
+            <sz val="10"/>
             <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
             <color indexed="81"/>
-            <rFont val="Arial"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-LiST has higher values 'recalculated across countries for consistency'</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-LiST 13.56</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000003000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-LiST 7.11</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000004000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-LiST 5.47</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000005000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-LiST 1.97</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000006000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-LiST 4.01</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000007000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-LiST 2.84</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000008000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-LiST 1.49</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000009000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-LiST 0.79</t>
+We don't model deaths through severe diarrhoea specifically, only deaths through diarrhoea</t>
         </r>
       </text>
     </comment>
@@ -3381,10 +3489,9 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author xml:space="preserve"> Janka Petravic</author>
-    <author>Sam</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -3404,40 +3511,199 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-LiST &amp; DHS</t>
+LiST has higher values 'recalculated across countries for consistency'</t>
         </r>
       </text>
     </comment>
-    <comment ref="B5" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
+    <comment ref="D10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
       <text>
         <r>
           <rPr>
             <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Sam:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>From Jakub's book, annual incidence of severe acute wasting is annual prevalence * 2.6  (p. 147). Assuming the same to be true for moderate wasting.</t>
+LiST 13.56</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000003000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+LiST 7.11</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000004000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+LiST 5.47</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000005000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+LiST 1.97</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000006000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+LiST 4.01</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000007000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+LiST 2.84</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000008000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+LiST 1.49</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000009000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+LiST 0.79</t>
         </r>
       </text>
     </comment>
@@ -3448,93 +3714,35 @@
 <file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author xml:space="preserve"> Janka Petravic</author>
     <author>Sam</author>
-    <author>Nick</author>
-    <author xml:space="preserve"> Janka Petravic</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
       <text>
         <r>
           <rPr>
             <b/>
-            <sz val="10"/>
+            <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Sam:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="Calibri"/>
+            <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Using prevalence of iron-deficient anaemia</t>
+LiST &amp; DHS</t>
         </r>
       </text>
     </comment>
-    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000002000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Sam:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Fictional</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E5" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0600-000003000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nick:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>DHS</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000004000000}">
+    <comment ref="B5" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
       <text>
         <r>
           <rPr>
@@ -3563,217 +3771,7 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t>Fictional</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E6" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0600-000005000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Stevens: 42% of global childhood anemia is ID</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H6" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0600-000006000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-LiST, includes mild</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L6" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0600-000007000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-LiST, includes mild</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C7" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0600-000008000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nick:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-DHS</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D7" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0600-000009000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nick:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-DHS</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E7" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0600-00000A000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nick:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>DHS</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F7" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0600-00000B000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nick:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-DHS</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G7" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0600-00000C000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nick:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-DHS</t>
+          <t>From Jakub's book, annual incidence of severe acute wasting is annual prevalence * 2.6  (p. 147). Assuming the same to be true for moderate wasting.</t>
         </r>
       </text>
     </comment>
@@ -3784,10 +3782,207 @@
 <file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>Sam</author>
     <author>Nick</author>
+    <author xml:space="preserve"> Janka Petravic</author>
   </authors>
   <commentList>
-    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000001000000}">
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Using prevalence of iron-deficient anaemia</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Fictional</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E5" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0600-000003000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nick:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>DHS</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000004000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Fictional</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E6" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0600-000005000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>Stevens: 42% of global childhood anemia is ID</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H6" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0600-000006000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+LiST, includes mild</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L6" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0600-000007000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+LiST, includes mild</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C7" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0600-000008000000}">
       <text>
         <r>
           <rPr>
@@ -3807,7 +4002,112 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-LiST</t>
+DHS</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D7" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0600-000009000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nick:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+DHS</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E7" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0600-00000A000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nick:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>DHS</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F7" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0600-00000B000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nick:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+DHS</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G7" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0600-00000C000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nick:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+DHS</t>
         </r>
       </text>
     </comment>
@@ -3818,54 +4118,30 @@
 <file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author xml:space="preserve"> Janka Petravic</author>
+    <author>Nick</author>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000001000000}">
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000001000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nick:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="Arial"/>
+            <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Term AGA should be given by a formula in the spreadsheet. The result should be greyed to indicate that it is calculated.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000002000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Kozuki 2012, for hematocrit &lt;90g/L</t>
+LiST</t>
         </r>
       </text>
     </comment>
@@ -3876,35 +4152,10 @@
 <file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>Sam</author>
-    <author>Janka Petravic</author>
+    <author xml:space="preserve"> Janka Petravic</author>
   </authors>
   <commentList>
-    <comment ref="A6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Sam:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-May not need these beyond calculation below</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F12" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000002000000}">
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000001000000}">
       <text>
         <r>
           <rPr>
@@ -3914,7 +4165,7 @@
             <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
-          <t>Janka Petravic:</t>
+          <t xml:space="preserve"> Janka Petravic:</t>
         </r>
         <r>
           <rPr>
@@ -3924,187 +4175,31 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-LiST: 1.11</t>
+Term AGA should be given by a formula in the spreadsheet. The result should be greyed to indicate that it is calculated.</t>
         </r>
       </text>
     </comment>
-    <comment ref="B13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000003000000}">
+    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000002000000}">
       <text>
         <r>
           <rPr>
             <b/>
-            <sz val="10"/>
+            <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Sam:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="Calibri"/>
+            <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-This calculation 'dilutes' OR so that we cover 'everyone' with IYCF, not just frac poor</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000004000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Sam:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nick had these in the params documentation</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000005000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Sam:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>This assumes we deliver PPCF with education to the poor</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000006000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Sam:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-This assumes we deliver PPCF with education to the poor</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000007000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Sam:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>This assumes we deliver PPCF with education to the poor</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-00000A000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Sam:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Assumed same as stunting</t>
+Kozuki 2012, for hematocrit &lt;90g/L</t>
         </r>
       </text>
     </comment>
@@ -4113,7 +4208,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1423" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1427" uniqueCount="276">
   <si>
     <t>year</t>
   </si>
@@ -4933,6 +5028,15 @@
   <si>
     <t>Kangaroo mother care</t>
   </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Current expenditure</t>
+  </si>
+  <si>
+    <t>Available budget</t>
+  </si>
 </sst>
 </file>
 
@@ -6146,7 +6250,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="157">
+  <cellXfs count="161">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -6394,6 +6498,10 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="739" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="739" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="739" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="740">
     <cellStyle name="Comma" xfId="9" builtinId="3"/>
@@ -8230,6 +8338,210 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Baseline year demographics"/>
+      <sheetName val="Demographic projections"/>
+      <sheetName val="Annual prevalence"/>
+      <sheetName val="Causes of death"/>
+      <sheetName val="Incidence of conditions"/>
+      <sheetName val="Prevalence of anaemia"/>
+      <sheetName val="Distributions"/>
+      <sheetName val="Distribution births"/>
+      <sheetName val="Birth outcomes &amp; risks"/>
+      <sheetName val="IYCF packages"/>
+      <sheetName val="IYCF cost &amp; coverage"/>
+      <sheetName val="Programs to include"/>
+      <sheetName val="Program dependencies"/>
+      <sheetName val="Programs annual scale-up"/>
+      <sheetName val="Programs annual spending"/>
+      <sheetName val="Reference programs"/>
+      <sheetName val="Programs cost and coverage"/>
+      <sheetName val="Expenditure &amp; budget"/>
+      <sheetName val="Appropriate breastfeeding"/>
+      <sheetName val="IYCF package odds ratios"/>
+      <sheetName val="Relative risks"/>
+      <sheetName val="Odds ratios"/>
+      <sheetName val="Programs birth outcomes"/>
+      <sheetName val="Programs anaemia"/>
+      <sheetName val="Programs wasting"/>
+      <sheetName val="Programs for children"/>
+      <sheetName val="Programs family planning"/>
+      <sheetName val="Programs for PW"/>
+      <sheetName val="Programs birth age"/>
+      <sheetName val="Programs target population"/>
+      <sheetName val="Programs impacted population"/>
+      <sheetName val="Program risk areas"/>
+      <sheetName val="Population risk areas"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="5">
+          <cell r="C5">
+            <v>3677298.8269880489</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="C6">
+            <v>0.35199999999999998</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="C7">
+            <v>0.36</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="C8">
+            <v>0.1</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="C11">
+            <v>0.1</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="C26">
+            <v>0.8</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="C27">
+            <v>0.12</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="C28">
+            <v>0.05</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="C32">
+            <v>8634000</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="C33">
+            <v>13550000</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="C34">
+            <v>12394000</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="C35">
+            <v>9148000</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="C38">
+            <v>7531583.5695012193</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="C39">
+            <v>11617337.925466225</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="C40">
+            <v>11797902.113393042</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="C41">
+            <v>9101877.564651465</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="C44">
+            <v>1102416.4304987811</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="C45">
+            <v>1932662.074533775</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="C46">
+            <v>596097.88660695858</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="C47">
+            <v>46122.435348534098</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="C50">
+            <v>0.29978973218277538</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="C51">
+            <v>0.52556568434139284</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="C52">
+            <v>0.16210210664201097</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="C53">
+            <v>1.2542476833820825E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16">
+        <row r="6">
+          <cell r="B6">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
+      <sheetData sheetId="26"/>
+      <sheetData sheetId="27"/>
+      <sheetData sheetId="28"/>
+      <sheetData sheetId="29"/>
+      <sheetData sheetId="30"/>
+      <sheetData sheetId="31"/>
+      <sheetData sheetId="32"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -8551,430 +8863,610 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{981C5C38-8704-D140-BA6D-290B3A1C68D7}">
+  <sheetPr>
+    <tabColor theme="7" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="17.5" style="158" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" style="158" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="158"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="157" t="s">
+        <v>253</v>
+      </c>
+      <c r="B1" s="157" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="157" t="s">
+        <v>274</v>
+      </c>
+      <c r="B2" s="159"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="157" t="s">
+        <v>275</v>
+      </c>
+      <c r="B3" s="160"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:G38"/>
+  <sheetViews>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" customWidth="1"/>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2" s="89" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="13">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="132">
-        <v>44075.145055396191</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="132">
-        <v>11549.61005434931</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="C5" s="133" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="132">
-        <f>'Demographic projections'!I2</f>
-        <v>13883.988759539629</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="C7" s="95">
-        <v>0.56000000000000005</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C8" s="13">
-        <v>7.7189996838569641E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="C10" s="22">
-        <v>0.40899999999999997</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="C11" s="22">
-        <v>0.29399999999999998</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C12" s="22">
-        <f>(0.221 * 8210 + 0.245*928) / (8210+928)</f>
-        <v>0.22343729481286934</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="B13" t="s">
-        <v>258</v>
-      </c>
-      <c r="C13" s="24">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="B14" t="s">
-        <v>259</v>
-      </c>
-      <c r="C14" s="24">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="B15" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="C15" s="47">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="4"/>
-      <c r="C16" s="128"/>
-    </row>
-    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="18"/>
-    </row>
-    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="89" t="s">
-        <v>267</v>
-      </c>
-      <c r="C19" s="13">
-        <v>4.08</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="C20" s="129" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="C21" s="129" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="89" t="s">
-        <v>268</v>
-      </c>
-      <c r="C22" s="13">
+      <c r="C1" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="10" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="89" t="s">
-        <v>269</v>
-      </c>
-      <c r="C23" s="13">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="89" t="s">
-        <v>270</v>
-      </c>
-      <c r="C24" s="13">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="1"/>
-    </row>
-    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="C27" s="23"/>
-    </row>
-    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="C28" s="23"/>
-    </row>
-    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="C29" s="23"/>
-    </row>
-    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="C30" s="23">
-        <v>0.88</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="C31" s="23"/>
-    </row>
-    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="18"/>
-      <c r="C32" s="94"/>
-    </row>
-    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="B34" s="90" t="s">
-        <v>107</v>
-      </c>
-      <c r="C34" s="14">
-        <v>10111.35641047336</v>
-      </c>
-      <c r="D34" s="91"/>
-      <c r="E34" s="92"/>
-    </row>
-    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="90" t="s">
-        <v>108</v>
-      </c>
-      <c r="C35" s="14">
-        <v>16253.964063561032</v>
-      </c>
-      <c r="D35" s="91"/>
-      <c r="E35" s="91"/>
-    </row>
-    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="90" t="s">
-        <v>109</v>
-      </c>
-      <c r="C36" s="14">
-        <v>11455.23517261441</v>
-      </c>
-      <c r="D36" s="91"/>
-    </row>
-    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="90" t="s">
-        <v>110</v>
-      </c>
-      <c r="C37" s="14">
-        <v>7162.4086294579665</v>
-      </c>
-      <c r="D37" s="91"/>
-    </row>
-    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="90"/>
-      <c r="C38" s="93"/>
-      <c r="D38" s="91"/>
-    </row>
-    <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="90"/>
-      <c r="C39" s="93"/>
-      <c r="D39" s="91"/>
-    </row>
-    <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="B40" s="90" t="s">
-        <v>107</v>
-      </c>
-      <c r="C40" s="130">
-        <f>C34-C46</f>
-        <v>8347.4617846223191</v>
-      </c>
-      <c r="D40" s="91"/>
-      <c r="E40" s="92"/>
-    </row>
-    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="90" t="s">
-        <v>108</v>
-      </c>
-      <c r="C41" s="130">
-        <f>C35-C47</f>
-        <v>9973.4301684853581</v>
-      </c>
-      <c r="D41" s="91"/>
-      <c r="E41" s="91"/>
-    </row>
-    <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="90" t="s">
-        <v>109</v>
-      </c>
-      <c r="C42" s="130">
-        <f t="shared" ref="C42:C43" si="0">C36-C48</f>
-        <v>6818.3303607181142</v>
-      </c>
-      <c r="D42" s="91"/>
-    </row>
-    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="90" t="s">
-        <v>110</v>
-      </c>
-      <c r="C43" s="130">
-        <f t="shared" si="0"/>
-        <v>5959.7532027413481</v>
-      </c>
-      <c r="D43" s="91"/>
-    </row>
-    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="90"/>
-      <c r="C44" s="26"/>
-      <c r="D44" s="91"/>
-    </row>
-    <row r="45" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="90"/>
-      <c r="C45" s="26"/>
-    </row>
-    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="B46" s="90" t="s">
-        <v>111</v>
-      </c>
-      <c r="C46" s="131">
-        <f>C52*C$6</f>
-        <v>1763.8946258510405</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="90" t="s">
-        <v>112</v>
-      </c>
-      <c r="C47" s="131">
-        <f t="shared" ref="C47:C49" si="1">C53*C$6</f>
-        <v>6280.5338950756741</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="90" t="s">
-        <v>113</v>
-      </c>
-      <c r="C48" s="131">
-        <f t="shared" si="1"/>
-        <v>4636.9048118962955</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="90" t="s">
-        <v>114</v>
-      </c>
-      <c r="C49" s="131">
-        <f t="shared" si="1"/>
-        <v>1202.6554267166184</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B52" s="90" t="s">
-        <v>111</v>
-      </c>
-      <c r="C52" s="22">
-        <v>0.12704523580365737</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="90" t="s">
-        <v>112</v>
-      </c>
-      <c r="C53" s="22">
-        <v>0.4523580365736285</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="90" t="s">
-        <v>113</v>
-      </c>
-      <c r="C54" s="22">
-        <v>0.33397497593840231</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="90" t="s">
-        <v>114</v>
-      </c>
-      <c r="C55" s="22">
-        <v>8.662175168431184E-2</v>
-      </c>
+      <c r="F1" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="148">
+        <f>1-D2-E2-F2</f>
+        <v>0.81043023255813951</v>
+      </c>
+      <c r="D2" s="149">
+        <v>0.11035174418604651</v>
+      </c>
+      <c r="E2" s="149">
+        <v>6.6487790697674423E-2</v>
+      </c>
+      <c r="F2" s="149">
+        <v>1.2730232558139536E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="10"/>
+      <c r="C3" s="138"/>
+      <c r="D3" s="139"/>
+      <c r="E3" s="139"/>
+      <c r="F3" s="139"/>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="10"/>
+      <c r="C4" s="138"/>
+      <c r="D4" s="139"/>
+      <c r="E4" s="139"/>
+      <c r="F4" s="139"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="B5" t="s">
+        <v>263</v>
+      </c>
+      <c r="C5" s="24"/>
+      <c r="D5" s="11">
+        <v>1.53</v>
+      </c>
+      <c r="E5" s="11">
+        <v>1.32</v>
+      </c>
+      <c r="F5" s="11">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>264</v>
+      </c>
+      <c r="C6" s="6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="6">
+        <v>5</v>
+      </c>
+      <c r="E6" s="6">
+        <v>6.4</v>
+      </c>
+      <c r="F6" s="6">
+        <v>46.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C7" s="36">
+        <v>1</v>
+      </c>
+      <c r="D7" s="36">
+        <v>2.52</v>
+      </c>
+      <c r="E7" s="36">
+        <v>1.96</v>
+      </c>
+      <c r="F7" s="36">
+        <v>4.1900000000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C8" s="36">
+        <v>1</v>
+      </c>
+      <c r="D8" s="36">
+        <v>2.52</v>
+      </c>
+      <c r="E8" s="36">
+        <v>1.96</v>
+      </c>
+      <c r="F8" s="36">
+        <v>4.1900000000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="10"/>
+      <c r="C9" s="5"/>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="10"/>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="10"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="C12" s="5">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" s="5">
+        <v>1</v>
+      </c>
+      <c r="F12" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="5">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="E13" s="5">
+        <v>3.39</v>
+      </c>
+      <c r="F13" s="5">
+        <v>11.89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="5">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="E14" s="5">
+        <v>3.39</v>
+      </c>
+      <c r="F14" s="5">
+        <v>11.89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="5">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="E15" s="5">
+        <v>3.39</v>
+      </c>
+      <c r="F15" s="5">
+        <v>11.89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="5">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" s="5">
+        <v>999.99</v>
+      </c>
+      <c r="F16" s="5">
+        <v>999.99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="5">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" s="5">
+        <v>1</v>
+      </c>
+      <c r="F17" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="5">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" s="5">
+        <v>1</v>
+      </c>
+      <c r="F18" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="5">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" s="5">
+        <v>1</v>
+      </c>
+      <c r="F19" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="10"/>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="B23" s="64" t="s">
+        <v>188</v>
+      </c>
+      <c r="C23" s="67">
+        <v>1</v>
+      </c>
+      <c r="D23" s="67">
+        <v>1.52</v>
+      </c>
+      <c r="E23" s="67">
+        <v>1.75</v>
+      </c>
+      <c r="F23" s="67">
+        <v>3.14</v>
+      </c>
+      <c r="G23" s="68"/>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="64" t="s">
+        <v>189</v>
+      </c>
+      <c r="C24" s="67">
+        <v>1</v>
+      </c>
+      <c r="D24" s="67">
+        <v>1.2</v>
+      </c>
+      <c r="E24" s="67">
+        <v>1.4</v>
+      </c>
+      <c r="F24" s="67">
+        <v>1.6</v>
+      </c>
+      <c r="G24" s="68"/>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="64" t="s">
+        <v>190</v>
+      </c>
+      <c r="C25" s="67">
+        <v>1</v>
+      </c>
+      <c r="D25" s="67">
+        <v>1.2</v>
+      </c>
+      <c r="E25" s="67">
+        <v>1.4</v>
+      </c>
+      <c r="F25" s="67">
+        <v>1.6</v>
+      </c>
+      <c r="G25" s="68"/>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="65" t="s">
+        <v>191</v>
+      </c>
+      <c r="C26" s="67">
+        <v>1</v>
+      </c>
+      <c r="D26" s="67">
+        <v>1.52</v>
+      </c>
+      <c r="E26" s="67">
+        <v>1.75</v>
+      </c>
+      <c r="F26" s="67">
+        <v>1.73</v>
+      </c>
+      <c r="G26" s="68"/>
+    </row>
+    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="65" t="s">
+        <v>192</v>
+      </c>
+      <c r="C27" s="67">
+        <v>1</v>
+      </c>
+      <c r="D27" s="67">
+        <v>1</v>
+      </c>
+      <c r="E27" s="67">
+        <v>1</v>
+      </c>
+      <c r="F27" s="67">
+        <v>1</v>
+      </c>
+      <c r="G27" s="68"/>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B28" s="65" t="s">
+        <v>193</v>
+      </c>
+      <c r="C28" s="67">
+        <v>1</v>
+      </c>
+      <c r="D28" s="67">
+        <v>1</v>
+      </c>
+      <c r="E28" s="67">
+        <v>1</v>
+      </c>
+      <c r="F28" s="67">
+        <v>1</v>
+      </c>
+      <c r="G28" s="68"/>
+    </row>
+    <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="66" t="s">
+        <v>194</v>
+      </c>
+      <c r="C29" s="67">
+        <v>1</v>
+      </c>
+      <c r="D29" s="67">
+        <v>1.52</v>
+      </c>
+      <c r="E29" s="67">
+        <v>1.75</v>
+      </c>
+      <c r="F29" s="67">
+        <v>1.52</v>
+      </c>
+      <c r="G29" s="68"/>
+    </row>
+    <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="66" t="s">
+        <v>195</v>
+      </c>
+      <c r="C30" s="67">
+        <v>1</v>
+      </c>
+      <c r="D30" s="67">
+        <v>1</v>
+      </c>
+      <c r="E30" s="67">
+        <v>1.33</v>
+      </c>
+      <c r="F30" s="67">
+        <v>1</v>
+      </c>
+      <c r="G30" s="68"/>
+    </row>
+    <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B31" s="66" t="s">
+        <v>196</v>
+      </c>
+      <c r="C31" s="67">
+        <v>1</v>
+      </c>
+      <c r="D31" s="67">
+        <v>1</v>
+      </c>
+      <c r="E31" s="67">
+        <v>1.33</v>
+      </c>
+      <c r="F31" s="67">
+        <v>1</v>
+      </c>
+      <c r="G31" s="68"/>
+    </row>
+    <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B32" s="63"/>
+      <c r="C32" s="67"/>
+      <c r="D32" s="67"/>
+      <c r="E32" s="67"/>
+      <c r="F32" s="67"/>
+      <c r="G32" s="68"/>
+    </row>
+    <row r="33" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C33" s="68"/>
+      <c r="D33" s="68"/>
+      <c r="E33" s="68"/>
+      <c r="F33" s="68"/>
+      <c r="G33" s="68"/>
+    </row>
+    <row r="34" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B34" s="10"/>
+      <c r="C34" s="69"/>
+      <c r="D34" s="69"/>
+      <c r="E34" s="69"/>
+      <c r="F34" s="69"/>
+      <c r="G34" s="68"/>
+    </row>
+    <row r="35" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="B35" s="63" t="s">
+        <v>184</v>
+      </c>
+      <c r="C35" s="67">
+        <v>1</v>
+      </c>
+      <c r="D35" s="70">
+        <v>1</v>
+      </c>
+      <c r="E35" s="70">
+        <v>1</v>
+      </c>
+      <c r="F35" s="70">
+        <v>1</v>
+      </c>
+      <c r="G35" s="68"/>
+    </row>
+    <row r="36" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B36" s="63" t="s">
+        <v>185</v>
+      </c>
+      <c r="C36" s="67">
+        <v>1</v>
+      </c>
+      <c r="D36" s="70">
+        <v>1.41</v>
+      </c>
+      <c r="E36" s="70">
+        <v>1.49</v>
+      </c>
+      <c r="F36" s="70">
+        <v>3.03</v>
+      </c>
+      <c r="G36" s="68"/>
+    </row>
+    <row r="37" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B37" s="63" t="s">
+        <v>186</v>
+      </c>
+      <c r="C37" s="67">
+        <v>1</v>
+      </c>
+      <c r="D37" s="70">
+        <v>1.18</v>
+      </c>
+      <c r="E37" s="70">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F37" s="70">
+        <v>1.77</v>
+      </c>
+      <c r="G37" s="68"/>
+    </row>
+    <row r="38" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B38" s="63" t="s">
+        <v>187</v>
+      </c>
+      <c r="C38" s="67">
+        <v>1</v>
+      </c>
+      <c r="D38" s="70">
+        <v>1</v>
+      </c>
+      <c r="E38" s="70">
+        <v>1</v>
+      </c>
+      <c r="F38" s="70">
+        <v>1</v>
+      </c>
+      <c r="G38" s="68"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8988,7 +9480,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -13049,7 +13541,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -13459,7 +13951,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:J51"/>
   <sheetViews>
@@ -14565,11 +15057,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B48:B50"/>
     <mergeCell ref="B25:B27"/>
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="B31:B33"/>
@@ -14580,6 +15067,11 @@
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B48:B50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -14591,7 +15083,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:E21"/>
   <sheetViews>
@@ -14811,7 +15303,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
@@ -15008,7 +15500,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -15091,7 +15583,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -15404,7 +15896,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -16736,7 +17228,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -16832,7 +17324,445 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E55"/>
+  <sheetViews>
+    <sheetView topLeftCell="A49" zoomScale="150" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="22.6640625" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="89" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="13">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="132">
+        <v>44075.145055396191</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="132">
+        <v>11549.61005434931</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="133" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="132">
+        <f>'Demographic projections'!I2</f>
+        <v>13883.988759539629</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="95">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="13">
+        <v>7.7189996838569641E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C10" s="22">
+        <v>0.40899999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C11" s="22">
+        <v>0.29399999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C12" s="22">
+        <f>(0.221 * 8210 + 0.245*928) / (8210+928)</f>
+        <v>0.22343729481286934</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B13" t="s">
+        <v>258</v>
+      </c>
+      <c r="C13" s="24">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B14" t="s">
+        <v>259</v>
+      </c>
+      <c r="C14" s="24">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B15" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="C15" s="47">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="4"/>
+      <c r="C16" s="128"/>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="18"/>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="B18" s="10"/>
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="89" t="s">
+        <v>267</v>
+      </c>
+      <c r="C19" s="13">
+        <v>4.08</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C20" s="129" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C21" s="129" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="89" t="s">
+        <v>268</v>
+      </c>
+      <c r="C22" s="13">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="89" t="s">
+        <v>269</v>
+      </c>
+      <c r="C23" s="13">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="89" t="s">
+        <v>270</v>
+      </c>
+      <c r="C24" s="13">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" s="10"/>
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" s="23"/>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B28" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="C28" s="23"/>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="C29" s="23"/>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="C30" s="23">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B31" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" s="23"/>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B32" s="18"/>
+      <c r="C32" s="94"/>
+    </row>
+    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B34" s="90" t="s">
+        <v>107</v>
+      </c>
+      <c r="C34" s="14">
+        <v>10111.35641047336</v>
+      </c>
+      <c r="D34" s="91"/>
+      <c r="E34" s="92"/>
+    </row>
+    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="90" t="s">
+        <v>108</v>
+      </c>
+      <c r="C35" s="14">
+        <v>16253.964063561032</v>
+      </c>
+      <c r="D35" s="91"/>
+      <c r="E35" s="91"/>
+    </row>
+    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="90" t="s">
+        <v>109</v>
+      </c>
+      <c r="C36" s="14">
+        <v>11455.23517261441</v>
+      </c>
+      <c r="D36" s="91"/>
+    </row>
+    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="90" t="s">
+        <v>110</v>
+      </c>
+      <c r="C37" s="14">
+        <v>7162.4086294579665</v>
+      </c>
+      <c r="D37" s="91"/>
+    </row>
+    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="90"/>
+      <c r="C38" s="93"/>
+      <c r="D38" s="91"/>
+    </row>
+    <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="90"/>
+      <c r="C39" s="93"/>
+      <c r="D39" s="91"/>
+    </row>
+    <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="B40" s="90" t="s">
+        <v>107</v>
+      </c>
+      <c r="C40" s="130">
+        <f>C34-C46</f>
+        <v>8347.4617846223191</v>
+      </c>
+      <c r="D40" s="91"/>
+      <c r="E40" s="92"/>
+    </row>
+    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="90" t="s">
+        <v>108</v>
+      </c>
+      <c r="C41" s="130">
+        <f>C35-C47</f>
+        <v>9973.4301684853581</v>
+      </c>
+      <c r="D41" s="91"/>
+      <c r="E41" s="91"/>
+    </row>
+    <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="90" t="s">
+        <v>109</v>
+      </c>
+      <c r="C42" s="130">
+        <f t="shared" ref="C42:C43" si="0">C36-C48</f>
+        <v>6818.3303607181142</v>
+      </c>
+      <c r="D42" s="91"/>
+    </row>
+    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="90" t="s">
+        <v>110</v>
+      </c>
+      <c r="C43" s="130">
+        <f t="shared" si="0"/>
+        <v>5959.7532027413481</v>
+      </c>
+      <c r="D43" s="91"/>
+    </row>
+    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="90"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="91"/>
+    </row>
+    <row r="45" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="90"/>
+      <c r="C45" s="26"/>
+    </row>
+    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="B46" s="90" t="s">
+        <v>111</v>
+      </c>
+      <c r="C46" s="131">
+        <f>C52*C$6</f>
+        <v>1763.8946258510405</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="90" t="s">
+        <v>112</v>
+      </c>
+      <c r="C47" s="131">
+        <f t="shared" ref="C47:C49" si="1">C53*C$6</f>
+        <v>6280.5338950756741</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="90" t="s">
+        <v>113</v>
+      </c>
+      <c r="C48" s="131">
+        <f t="shared" si="1"/>
+        <v>4636.9048118962955</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="90" t="s">
+        <v>114</v>
+      </c>
+      <c r="C49" s="131">
+        <f t="shared" si="1"/>
+        <v>1202.6554267166184</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B52" s="90" t="s">
+        <v>111</v>
+      </c>
+      <c r="C52" s="22">
+        <v>0.12704523580365737</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="90" t="s">
+        <v>112</v>
+      </c>
+      <c r="C53" s="22">
+        <v>0.4523580365736285</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="90" t="s">
+        <v>113</v>
+      </c>
+      <c r="C54" s="22">
+        <v>0.33397497593840231</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="90" t="s">
+        <v>114</v>
+      </c>
+      <c r="C55" s="22">
+        <v>8.662175168431184E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -18107,608 +19037,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:G2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="12.5" customWidth="1"/>
-    <col min="2" max="2" width="16.5" customWidth="1"/>
-    <col min="10" max="10" width="16.1640625" customWidth="1"/>
-    <col min="11" max="11" width="17.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3">
-        <v>2017</v>
-      </c>
-      <c r="B2" s="80">
-        <v>11772.745000000001</v>
-      </c>
-      <c r="C2" s="134"/>
-      <c r="D2" s="14">
-        <v>10111.35641047336</v>
-      </c>
-      <c r="E2" s="14">
-        <v>16253.964063561032</v>
-      </c>
-      <c r="F2" s="14">
-        <v>11455.23517261441</v>
-      </c>
-      <c r="G2" s="14">
-        <v>7162.4086294579665</v>
-      </c>
-      <c r="H2" s="135">
-        <f>D2+E2+F2+G2</f>
-        <v>44982.964276106773</v>
-      </c>
-      <c r="I2" s="136">
-        <f t="shared" ref="I2:I15" si="0">(B2 + 25.36*B2/(1000-25.36))/(1-0.13)</f>
-        <v>13883.988759539629</v>
-      </c>
-      <c r="J2" s="137">
-        <f t="shared" ref="J2:J15" si="1">D2/H2</f>
-        <v>0.22478190517658092</v>
-      </c>
-      <c r="K2" s="135">
-        <f>H2-I2</f>
-        <v>31098.975516567145</v>
-      </c>
-      <c r="L2" s="134"/>
-    </row>
-    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="3">
-        <v>2018</v>
-      </c>
-      <c r="B3" s="80">
-        <v>11995.925000000001</v>
-      </c>
-      <c r="C3" s="134"/>
-      <c r="D3" s="14">
-        <v>10548.489024631055</v>
-      </c>
-      <c r="E3" s="14">
-        <v>16721.110168551852</v>
-      </c>
-      <c r="F3" s="14">
-        <v>11862.221764470189</v>
-      </c>
-      <c r="G3" s="14">
-        <v>7517.2442189977301</v>
-      </c>
-      <c r="H3" s="135">
-        <f t="shared" ref="H3:H15" si="2">D3+E3+F3+G3</f>
-        <v>46649.065176650824</v>
-      </c>
-      <c r="I3" s="136">
-        <f t="shared" si="0"/>
-        <v>14147.192337919525</v>
-      </c>
-      <c r="J3" s="137">
-        <f t="shared" si="1"/>
-        <v>0.22612433892696465</v>
-      </c>
-      <c r="K3" s="135">
-        <f t="shared" ref="K3:K15" si="3">H3-I3</f>
-        <v>32501.872838731299</v>
-      </c>
-      <c r="L3" s="134"/>
-    </row>
-    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="3">
-        <v>2019</v>
-      </c>
-      <c r="B4" s="80">
-        <v>12274.900000000001</v>
-      </c>
-      <c r="C4" s="134"/>
-      <c r="D4" s="14">
-        <v>11004.519689119803</v>
-      </c>
-      <c r="E4" s="14">
-        <v>17201.682258893368</v>
-      </c>
-      <c r="F4" s="14">
-        <v>12283.667953484337</v>
-      </c>
-      <c r="G4" s="14">
-        <v>7889.658852420328</v>
-      </c>
-      <c r="H4" s="135">
-        <f t="shared" si="2"/>
-        <v>48379.528753917832</v>
-      </c>
-      <c r="I4" s="136">
-        <f t="shared" si="0"/>
-        <v>14476.196810894398</v>
-      </c>
-      <c r="J4" s="137">
-        <f t="shared" si="1"/>
-        <v>0.22746231665658057</v>
-      </c>
-      <c r="K4" s="135">
-        <f t="shared" si="3"/>
-        <v>33903.331943023433</v>
-      </c>
-      <c r="L4" s="134"/>
-    </row>
-    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="3">
-        <v>2020</v>
-      </c>
-      <c r="B5" s="80">
-        <v>12498.08</v>
-      </c>
-      <c r="C5" s="134"/>
-      <c r="D5" s="14">
-        <v>11480.265401561717</v>
-      </c>
-      <c r="E5" s="14">
-        <v>17696.066203333517</v>
-      </c>
-      <c r="F5" s="14">
-        <v>12720.087466531808</v>
-      </c>
-      <c r="G5" s="14">
-        <v>8280.523419774403</v>
-      </c>
-      <c r="H5" s="135">
-        <f t="shared" si="2"/>
-        <v>50176.942491201436</v>
-      </c>
-      <c r="I5" s="136">
-        <f t="shared" si="0"/>
-        <v>14739.400389274295</v>
-      </c>
-      <c r="J5" s="137">
-        <f t="shared" si="1"/>
-        <v>0.22879563463985056</v>
-      </c>
-      <c r="K5" s="135">
-        <f t="shared" si="3"/>
-        <v>35437.542101927145</v>
-      </c>
-      <c r="L5" s="134"/>
-    </row>
-    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="3">
-        <v>2021</v>
-      </c>
-      <c r="B6" s="80">
-        <v>12721.26</v>
-      </c>
-      <c r="C6" s="134"/>
-      <c r="D6" s="14">
-        <v>11837.990222861758</v>
-      </c>
-      <c r="E6" s="14">
-        <v>18336.8832647622</v>
-      </c>
-      <c r="F6" s="14">
-        <v>13131.295418778698</v>
-      </c>
-      <c r="G6" s="14">
-        <v>8647.1069029899263</v>
-      </c>
-      <c r="H6" s="135">
-        <f t="shared" si="2"/>
-        <v>51953.27580939258</v>
-      </c>
-      <c r="I6" s="136">
-        <f t="shared" si="0"/>
-        <v>15002.603967654193</v>
-      </c>
-      <c r="J6" s="137">
-        <f t="shared" si="1"/>
-        <v>0.22785839850201667</v>
-      </c>
-      <c r="K6" s="135">
-        <f t="shared" si="3"/>
-        <v>36950.671841738389</v>
-      </c>
-      <c r="L6" s="134"/>
-    </row>
-    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="3">
-        <v>2022</v>
-      </c>
-      <c r="B7" s="80">
-        <v>13000.235000000001</v>
-      </c>
-      <c r="C7" s="134"/>
-      <c r="D7" s="14">
-        <v>12206.861741846742</v>
-      </c>
-      <c r="E7" s="14">
-        <v>19000.905851164607</v>
-      </c>
-      <c r="F7" s="14">
-        <v>13555.796674270239</v>
-      </c>
-      <c r="G7" s="14">
-        <v>9029.9192455847369</v>
-      </c>
-      <c r="H7" s="135">
-        <f t="shared" si="2"/>
-        <v>53793.483512866325</v>
-      </c>
-      <c r="I7" s="136">
-        <f t="shared" si="0"/>
-        <v>15331.608440629067</v>
-      </c>
-      <c r="J7" s="137">
-        <f t="shared" si="1"/>
-        <v>0.22692082655192064</v>
-      </c>
-      <c r="K7" s="135">
-        <f t="shared" si="3"/>
-        <v>38461.875072237257</v>
-      </c>
-      <c r="L7" s="134"/>
-    </row>
-    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="3">
-        <v>2023</v>
-      </c>
-      <c r="B8" s="80">
-        <v>13279.210000000001</v>
-      </c>
-      <c r="C8" s="134"/>
-      <c r="D8" s="14">
-        <v>12587.227289375147</v>
-      </c>
-      <c r="E8" s="14">
-        <v>19688.974290337417</v>
-      </c>
-      <c r="F8" s="14">
-        <v>13994.020971561311</v>
-      </c>
-      <c r="G8" s="14">
-        <v>9429.6789083973945</v>
-      </c>
-      <c r="H8" s="135">
-        <f t="shared" si="2"/>
-        <v>55699.901459671266</v>
-      </c>
-      <c r="I8" s="136">
-        <f t="shared" si="0"/>
-        <v>15660.612913603938</v>
-      </c>
-      <c r="J8" s="137">
-        <f t="shared" si="1"/>
-        <v>0.22598293640588848</v>
-      </c>
-      <c r="K8" s="135">
-        <f t="shared" si="3"/>
-        <v>40039.288546067328</v>
-      </c>
-      <c r="L8" s="134"/>
-    </row>
-    <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="3">
-        <v>2024</v>
-      </c>
-      <c r="B9" s="80">
-        <v>13502.390000000001</v>
-      </c>
-      <c r="C9" s="134"/>
-      <c r="D9" s="14">
-        <v>12979.445019127474</v>
-      </c>
-      <c r="E9" s="14">
-        <v>20401.959340365214</v>
-      </c>
-      <c r="F9" s="14">
-        <v>14446.411941557113</v>
-      </c>
-      <c r="G9" s="14">
-        <v>9847.1361589365679</v>
-      </c>
-      <c r="H9" s="135">
-        <f t="shared" si="2"/>
-        <v>57674.952459986373</v>
-      </c>
-      <c r="I9" s="136">
-        <f t="shared" si="0"/>
-        <v>15923.816491983838</v>
-      </c>
-      <c r="J9" s="137">
-        <f t="shared" si="1"/>
-        <v>0.22504474586489395</v>
-      </c>
-      <c r="K9" s="135">
-        <f t="shared" si="3"/>
-        <v>41751.135968002534</v>
-      </c>
-      <c r="L9" s="134"/>
-    </row>
-    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="3">
-        <v>2025</v>
-      </c>
-      <c r="B10" s="80">
-        <v>13837.16</v>
-      </c>
-      <c r="C10" s="134"/>
-      <c r="D10" s="14">
-        <v>13383.884244845152</v>
-      </c>
-      <c r="E10" s="14">
-        <v>21140.763291574298</v>
-      </c>
-      <c r="F10" s="14">
-        <v>14913.427556617378</v>
-      </c>
-      <c r="G10" s="14">
-        <v>10283.07447948042</v>
-      </c>
-      <c r="H10" s="135">
-        <f t="shared" si="2"/>
-        <v>59721.149572517243</v>
-      </c>
-      <c r="I10" s="136">
-        <f t="shared" si="0"/>
-        <v>16318.621859553685</v>
-      </c>
-      <c r="J10" s="137">
-        <f t="shared" si="1"/>
-        <v>0.22410627291414717</v>
-      </c>
-      <c r="K10" s="135">
-        <f t="shared" si="3"/>
-        <v>43402.527712963558</v>
-      </c>
-      <c r="L10" s="134"/>
-    </row>
-    <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="3">
-        <v>2026</v>
-      </c>
-      <c r="B11" s="80">
-        <v>14116.135</v>
-      </c>
-      <c r="C11" s="134"/>
-      <c r="D11" s="14">
-        <v>13786.913639598222</v>
-      </c>
-      <c r="E11" s="14">
-        <v>21927.493002121075</v>
-      </c>
-      <c r="F11" s="14">
-        <v>15357.6588140246</v>
-      </c>
-      <c r="G11" s="14">
-        <v>10663.26702430867</v>
-      </c>
-      <c r="H11" s="135">
-        <f t="shared" si="2"/>
-        <v>61735.332480052566</v>
-      </c>
-      <c r="I11" s="136">
-        <f t="shared" si="0"/>
-        <v>16647.626332528554</v>
-      </c>
-      <c r="J11" s="137">
-        <f t="shared" si="1"/>
-        <v>0.22332290255426973</v>
-      </c>
-      <c r="K11" s="135">
-        <f t="shared" si="3"/>
-        <v>45087.706147524012</v>
-      </c>
-      <c r="L11" s="134"/>
-    </row>
-    <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="3">
-        <v>2027</v>
-      </c>
-      <c r="B12" s="80">
-        <v>14395.11</v>
-      </c>
-      <c r="C12" s="134"/>
-      <c r="D12" s="14">
-        <v>14202.079473225349</v>
-      </c>
-      <c r="E12" s="14">
-        <v>22743.499973328715</v>
-      </c>
-      <c r="F12" s="14">
-        <v>15815.122536558192</v>
-      </c>
-      <c r="G12" s="14">
-        <v>11057.51629618207</v>
-      </c>
-      <c r="H12" s="135">
-        <f t="shared" si="2"/>
-        <v>63818.218279294328</v>
-      </c>
-      <c r="I12" s="136">
-        <f t="shared" si="0"/>
-        <v>16976.630805503431</v>
-      </c>
-      <c r="J12" s="137">
-        <f t="shared" si="1"/>
-        <v>0.2225395797023243</v>
-      </c>
-      <c r="K12" s="135">
-        <f t="shared" si="3"/>
-        <v>46841.587473790896</v>
-      </c>
-      <c r="L12" s="134"/>
-    </row>
-    <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="3">
-        <v>2028</v>
-      </c>
-      <c r="B13" s="80">
-        <v>14674.085000000001</v>
-      </c>
-      <c r="C13" s="134"/>
-      <c r="D13" s="14">
-        <v>14629.747210753307</v>
-      </c>
-      <c r="E13" s="14">
-        <v>23589.87372549919</v>
-      </c>
-      <c r="F13" s="14">
-        <v>16286.212884085118</v>
-      </c>
-      <c r="G13" s="14">
-        <v>11466.342009592418</v>
-      </c>
-      <c r="H13" s="135">
-        <f t="shared" si="2"/>
-        <v>65972.175829930042</v>
-      </c>
-      <c r="I13" s="136">
-        <f t="shared" si="0"/>
-        <v>17305.635278478305</v>
-      </c>
-      <c r="J13" s="137">
-        <f t="shared" si="1"/>
-        <v>0.22175632418835775</v>
-      </c>
-      <c r="K13" s="135">
-        <f t="shared" si="3"/>
-        <v>48666.540551451733</v>
-      </c>
-      <c r="L13" s="134"/>
-    </row>
-    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="3">
-        <v>2029</v>
-      </c>
-      <c r="B14" s="80">
-        <v>15008.855000000001</v>
-      </c>
-      <c r="C14" s="134"/>
-      <c r="D14" s="14">
-        <v>15070.293322470558</v>
-      </c>
-      <c r="E14" s="14">
-        <v>24467.744324206178</v>
-      </c>
-      <c r="F14" s="14">
-        <v>16771.335757444205</v>
-      </c>
-      <c r="G14" s="14">
-        <v>11890.283094255095</v>
-      </c>
-      <c r="H14" s="135">
-        <f t="shared" si="2"/>
-        <v>68199.656498376033</v>
-      </c>
-      <c r="I14" s="136">
-        <f t="shared" si="0"/>
-        <v>17700.440646048151</v>
-      </c>
-      <c r="J14" s="137">
-        <f t="shared" si="1"/>
-        <v>0.22097315582270433</v>
-      </c>
-      <c r="K14" s="135">
-        <f t="shared" si="3"/>
-        <v>50499.215852327878</v>
-      </c>
-      <c r="L14" s="134"/>
-    </row>
-    <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="3">
-        <v>2030</v>
-      </c>
-      <c r="B15" s="80">
-        <v>15287.83</v>
-      </c>
-      <c r="C15" s="134"/>
-      <c r="D15" s="14">
-        <v>15524.105615329103</v>
-      </c>
-      <c r="E15" s="14">
-        <v>25378.28388914172</v>
-      </c>
-      <c r="F15" s="14">
-        <v>17270.909148178402</v>
-      </c>
-      <c r="G15" s="14">
-        <v>12329.898405546859</v>
-      </c>
-      <c r="H15" s="135">
-        <f t="shared" si="2"/>
-        <v>70503.197058196078</v>
-      </c>
-      <c r="I15" s="136">
-        <f t="shared" si="0"/>
-        <v>18029.445119023021</v>
-      </c>
-      <c r="J15" s="137">
-        <f t="shared" si="1"/>
-        <v>0.22019009439408688</v>
-      </c>
-      <c r="K15" s="135">
-        <f t="shared" si="3"/>
-        <v>52473.75193917306</v>
-      </c>
-      <c r="L15" s="134"/>
-    </row>
-    <row r="18" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H18" s="91"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -18875,7 +19204,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -19057,7 +19386,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -19143,7 +19472,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:O54"/>
   <sheetViews>
@@ -21587,7 +21916,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <dimension ref="A1:O57"/>
   <sheetViews>
@@ -24054,7 +24383,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <dimension ref="A1:C41"/>
   <sheetViews>
@@ -24312,7 +24641,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
   <dimension ref="A1:K52"/>
   <sheetViews>
@@ -24870,7 +25199,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
   <dimension ref="A1:K14"/>
   <sheetViews>
@@ -25170,7 +25499,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
   <dimension ref="A1:D52"/>
   <sheetViews>
@@ -25930,7 +26259,608 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:L18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
+    <col min="2" max="2" width="16.5" customWidth="1"/>
+    <col min="10" max="10" width="16.1640625" customWidth="1"/>
+    <col min="11" max="11" width="17.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3">
+        <v>2017</v>
+      </c>
+      <c r="B2" s="80">
+        <v>11772.745000000001</v>
+      </c>
+      <c r="C2" s="134"/>
+      <c r="D2" s="14">
+        <v>10111.35641047336</v>
+      </c>
+      <c r="E2" s="14">
+        <v>16253.964063561032</v>
+      </c>
+      <c r="F2" s="14">
+        <v>11455.23517261441</v>
+      </c>
+      <c r="G2" s="14">
+        <v>7162.4086294579665</v>
+      </c>
+      <c r="H2" s="135">
+        <f>D2+E2+F2+G2</f>
+        <v>44982.964276106773</v>
+      </c>
+      <c r="I2" s="136">
+        <f t="shared" ref="I2:I15" si="0">(B2 + 25.36*B2/(1000-25.36))/(1-0.13)</f>
+        <v>13883.988759539629</v>
+      </c>
+      <c r="J2" s="137">
+        <f t="shared" ref="J2:J15" si="1">D2/H2</f>
+        <v>0.22478190517658092</v>
+      </c>
+      <c r="K2" s="135">
+        <f>H2-I2</f>
+        <v>31098.975516567145</v>
+      </c>
+      <c r="L2" s="134"/>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3">
+        <v>2018</v>
+      </c>
+      <c r="B3" s="80">
+        <v>11995.925000000001</v>
+      </c>
+      <c r="C3" s="134"/>
+      <c r="D3" s="14">
+        <v>10548.489024631055</v>
+      </c>
+      <c r="E3" s="14">
+        <v>16721.110168551852</v>
+      </c>
+      <c r="F3" s="14">
+        <v>11862.221764470189</v>
+      </c>
+      <c r="G3" s="14">
+        <v>7517.2442189977301</v>
+      </c>
+      <c r="H3" s="135">
+        <f t="shared" ref="H3:H15" si="2">D3+E3+F3+G3</f>
+        <v>46649.065176650824</v>
+      </c>
+      <c r="I3" s="136">
+        <f t="shared" si="0"/>
+        <v>14147.192337919525</v>
+      </c>
+      <c r="J3" s="137">
+        <f t="shared" si="1"/>
+        <v>0.22612433892696465</v>
+      </c>
+      <c r="K3" s="135">
+        <f t="shared" ref="K3:K15" si="3">H3-I3</f>
+        <v>32501.872838731299</v>
+      </c>
+      <c r="L3" s="134"/>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B4" s="80">
+        <v>12274.900000000001</v>
+      </c>
+      <c r="C4" s="134"/>
+      <c r="D4" s="14">
+        <v>11004.519689119803</v>
+      </c>
+      <c r="E4" s="14">
+        <v>17201.682258893368</v>
+      </c>
+      <c r="F4" s="14">
+        <v>12283.667953484337</v>
+      </c>
+      <c r="G4" s="14">
+        <v>7889.658852420328</v>
+      </c>
+      <c r="H4" s="135">
+        <f t="shared" si="2"/>
+        <v>48379.528753917832</v>
+      </c>
+      <c r="I4" s="136">
+        <f t="shared" si="0"/>
+        <v>14476.196810894398</v>
+      </c>
+      <c r="J4" s="137">
+        <f t="shared" si="1"/>
+        <v>0.22746231665658057</v>
+      </c>
+      <c r="K4" s="135">
+        <f t="shared" si="3"/>
+        <v>33903.331943023433</v>
+      </c>
+      <c r="L4" s="134"/>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B5" s="80">
+        <v>12498.08</v>
+      </c>
+      <c r="C5" s="134"/>
+      <c r="D5" s="14">
+        <v>11480.265401561717</v>
+      </c>
+      <c r="E5" s="14">
+        <v>17696.066203333517</v>
+      </c>
+      <c r="F5" s="14">
+        <v>12720.087466531808</v>
+      </c>
+      <c r="G5" s="14">
+        <v>8280.523419774403</v>
+      </c>
+      <c r="H5" s="135">
+        <f t="shared" si="2"/>
+        <v>50176.942491201436</v>
+      </c>
+      <c r="I5" s="136">
+        <f t="shared" si="0"/>
+        <v>14739.400389274295</v>
+      </c>
+      <c r="J5" s="137">
+        <f t="shared" si="1"/>
+        <v>0.22879563463985056</v>
+      </c>
+      <c r="K5" s="135">
+        <f t="shared" si="3"/>
+        <v>35437.542101927145</v>
+      </c>
+      <c r="L5" s="134"/>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B6" s="80">
+        <v>12721.26</v>
+      </c>
+      <c r="C6" s="134"/>
+      <c r="D6" s="14">
+        <v>11837.990222861758</v>
+      </c>
+      <c r="E6" s="14">
+        <v>18336.8832647622</v>
+      </c>
+      <c r="F6" s="14">
+        <v>13131.295418778698</v>
+      </c>
+      <c r="G6" s="14">
+        <v>8647.1069029899263</v>
+      </c>
+      <c r="H6" s="135">
+        <f t="shared" si="2"/>
+        <v>51953.27580939258</v>
+      </c>
+      <c r="I6" s="136">
+        <f t="shared" si="0"/>
+        <v>15002.603967654193</v>
+      </c>
+      <c r="J6" s="137">
+        <f t="shared" si="1"/>
+        <v>0.22785839850201667</v>
+      </c>
+      <c r="K6" s="135">
+        <f t="shared" si="3"/>
+        <v>36950.671841738389</v>
+      </c>
+      <c r="L6" s="134"/>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B7" s="80">
+        <v>13000.235000000001</v>
+      </c>
+      <c r="C7" s="134"/>
+      <c r="D7" s="14">
+        <v>12206.861741846742</v>
+      </c>
+      <c r="E7" s="14">
+        <v>19000.905851164607</v>
+      </c>
+      <c r="F7" s="14">
+        <v>13555.796674270239</v>
+      </c>
+      <c r="G7" s="14">
+        <v>9029.9192455847369</v>
+      </c>
+      <c r="H7" s="135">
+        <f t="shared" si="2"/>
+        <v>53793.483512866325</v>
+      </c>
+      <c r="I7" s="136">
+        <f t="shared" si="0"/>
+        <v>15331.608440629067</v>
+      </c>
+      <c r="J7" s="137">
+        <f t="shared" si="1"/>
+        <v>0.22692082655192064</v>
+      </c>
+      <c r="K7" s="135">
+        <f t="shared" si="3"/>
+        <v>38461.875072237257</v>
+      </c>
+      <c r="L7" s="134"/>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="3">
+        <v>2023</v>
+      </c>
+      <c r="B8" s="80">
+        <v>13279.210000000001</v>
+      </c>
+      <c r="C8" s="134"/>
+      <c r="D8" s="14">
+        <v>12587.227289375147</v>
+      </c>
+      <c r="E8" s="14">
+        <v>19688.974290337417</v>
+      </c>
+      <c r="F8" s="14">
+        <v>13994.020971561311</v>
+      </c>
+      <c r="G8" s="14">
+        <v>9429.6789083973945</v>
+      </c>
+      <c r="H8" s="135">
+        <f t="shared" si="2"/>
+        <v>55699.901459671266</v>
+      </c>
+      <c r="I8" s="136">
+        <f t="shared" si="0"/>
+        <v>15660.612913603938</v>
+      </c>
+      <c r="J8" s="137">
+        <f t="shared" si="1"/>
+        <v>0.22598293640588848</v>
+      </c>
+      <c r="K8" s="135">
+        <f t="shared" si="3"/>
+        <v>40039.288546067328</v>
+      </c>
+      <c r="L8" s="134"/>
+    </row>
+    <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="3">
+        <v>2024</v>
+      </c>
+      <c r="B9" s="80">
+        <v>13502.390000000001</v>
+      </c>
+      <c r="C9" s="134"/>
+      <c r="D9" s="14">
+        <v>12979.445019127474</v>
+      </c>
+      <c r="E9" s="14">
+        <v>20401.959340365214</v>
+      </c>
+      <c r="F9" s="14">
+        <v>14446.411941557113</v>
+      </c>
+      <c r="G9" s="14">
+        <v>9847.1361589365679</v>
+      </c>
+      <c r="H9" s="135">
+        <f t="shared" si="2"/>
+        <v>57674.952459986373</v>
+      </c>
+      <c r="I9" s="136">
+        <f t="shared" si="0"/>
+        <v>15923.816491983838</v>
+      </c>
+      <c r="J9" s="137">
+        <f t="shared" si="1"/>
+        <v>0.22504474586489395</v>
+      </c>
+      <c r="K9" s="135">
+        <f t="shared" si="3"/>
+        <v>41751.135968002534</v>
+      </c>
+      <c r="L9" s="134"/>
+    </row>
+    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
+        <v>2025</v>
+      </c>
+      <c r="B10" s="80">
+        <v>13837.16</v>
+      </c>
+      <c r="C10" s="134"/>
+      <c r="D10" s="14">
+        <v>13383.884244845152</v>
+      </c>
+      <c r="E10" s="14">
+        <v>21140.763291574298</v>
+      </c>
+      <c r="F10" s="14">
+        <v>14913.427556617378</v>
+      </c>
+      <c r="G10" s="14">
+        <v>10283.07447948042</v>
+      </c>
+      <c r="H10" s="135">
+        <f t="shared" si="2"/>
+        <v>59721.149572517243</v>
+      </c>
+      <c r="I10" s="136">
+        <f t="shared" si="0"/>
+        <v>16318.621859553685</v>
+      </c>
+      <c r="J10" s="137">
+        <f t="shared" si="1"/>
+        <v>0.22410627291414717</v>
+      </c>
+      <c r="K10" s="135">
+        <f t="shared" si="3"/>
+        <v>43402.527712963558</v>
+      </c>
+      <c r="L10" s="134"/>
+    </row>
+    <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>2026</v>
+      </c>
+      <c r="B11" s="80">
+        <v>14116.135</v>
+      </c>
+      <c r="C11" s="134"/>
+      <c r="D11" s="14">
+        <v>13786.913639598222</v>
+      </c>
+      <c r="E11" s="14">
+        <v>21927.493002121075</v>
+      </c>
+      <c r="F11" s="14">
+        <v>15357.6588140246</v>
+      </c>
+      <c r="G11" s="14">
+        <v>10663.26702430867</v>
+      </c>
+      <c r="H11" s="135">
+        <f t="shared" si="2"/>
+        <v>61735.332480052566</v>
+      </c>
+      <c r="I11" s="136">
+        <f t="shared" si="0"/>
+        <v>16647.626332528554</v>
+      </c>
+      <c r="J11" s="137">
+        <f t="shared" si="1"/>
+        <v>0.22332290255426973</v>
+      </c>
+      <c r="K11" s="135">
+        <f t="shared" si="3"/>
+        <v>45087.706147524012</v>
+      </c>
+      <c r="L11" s="134"/>
+    </row>
+    <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <v>2027</v>
+      </c>
+      <c r="B12" s="80">
+        <v>14395.11</v>
+      </c>
+      <c r="C12" s="134"/>
+      <c r="D12" s="14">
+        <v>14202.079473225349</v>
+      </c>
+      <c r="E12" s="14">
+        <v>22743.499973328715</v>
+      </c>
+      <c r="F12" s="14">
+        <v>15815.122536558192</v>
+      </c>
+      <c r="G12" s="14">
+        <v>11057.51629618207</v>
+      </c>
+      <c r="H12" s="135">
+        <f t="shared" si="2"/>
+        <v>63818.218279294328</v>
+      </c>
+      <c r="I12" s="136">
+        <f t="shared" si="0"/>
+        <v>16976.630805503431</v>
+      </c>
+      <c r="J12" s="137">
+        <f t="shared" si="1"/>
+        <v>0.2225395797023243</v>
+      </c>
+      <c r="K12" s="135">
+        <f t="shared" si="3"/>
+        <v>46841.587473790896</v>
+      </c>
+      <c r="L12" s="134"/>
+    </row>
+    <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
+        <v>2028</v>
+      </c>
+      <c r="B13" s="80">
+        <v>14674.085000000001</v>
+      </c>
+      <c r="C13" s="134"/>
+      <c r="D13" s="14">
+        <v>14629.747210753307</v>
+      </c>
+      <c r="E13" s="14">
+        <v>23589.87372549919</v>
+      </c>
+      <c r="F13" s="14">
+        <v>16286.212884085118</v>
+      </c>
+      <c r="G13" s="14">
+        <v>11466.342009592418</v>
+      </c>
+      <c r="H13" s="135">
+        <f t="shared" si="2"/>
+        <v>65972.175829930042</v>
+      </c>
+      <c r="I13" s="136">
+        <f t="shared" si="0"/>
+        <v>17305.635278478305</v>
+      </c>
+      <c r="J13" s="137">
+        <f t="shared" si="1"/>
+        <v>0.22175632418835775</v>
+      </c>
+      <c r="K13" s="135">
+        <f t="shared" si="3"/>
+        <v>48666.540551451733</v>
+      </c>
+      <c r="L13" s="134"/>
+    </row>
+    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
+        <v>2029</v>
+      </c>
+      <c r="B14" s="80">
+        <v>15008.855000000001</v>
+      </c>
+      <c r="C14" s="134"/>
+      <c r="D14" s="14">
+        <v>15070.293322470558</v>
+      </c>
+      <c r="E14" s="14">
+        <v>24467.744324206178</v>
+      </c>
+      <c r="F14" s="14">
+        <v>16771.335757444205</v>
+      </c>
+      <c r="G14" s="14">
+        <v>11890.283094255095</v>
+      </c>
+      <c r="H14" s="135">
+        <f t="shared" si="2"/>
+        <v>68199.656498376033</v>
+      </c>
+      <c r="I14" s="136">
+        <f t="shared" si="0"/>
+        <v>17700.440646048151</v>
+      </c>
+      <c r="J14" s="137">
+        <f t="shared" si="1"/>
+        <v>0.22097315582270433</v>
+      </c>
+      <c r="K14" s="135">
+        <f t="shared" si="3"/>
+        <v>50499.215852327878</v>
+      </c>
+      <c r="L14" s="134"/>
+    </row>
+    <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
+        <v>2030</v>
+      </c>
+      <c r="B15" s="80">
+        <v>15287.83</v>
+      </c>
+      <c r="C15" s="134"/>
+      <c r="D15" s="14">
+        <v>15524.105615329103</v>
+      </c>
+      <c r="E15" s="14">
+        <v>25378.28388914172</v>
+      </c>
+      <c r="F15" s="14">
+        <v>17270.909148178402</v>
+      </c>
+      <c r="G15" s="14">
+        <v>12329.898405546859</v>
+      </c>
+      <c r="H15" s="135">
+        <f t="shared" si="2"/>
+        <v>70503.197058196078</v>
+      </c>
+      <c r="I15" s="136">
+        <f t="shared" si="0"/>
+        <v>18029.445119023021</v>
+      </c>
+      <c r="J15" s="137">
+        <f t="shared" si="1"/>
+        <v>0.22019009439408688</v>
+      </c>
+      <c r="K15" s="135">
+        <f t="shared" si="3"/>
+        <v>52473.75193917306</v>
+      </c>
+      <c r="L15" s="134"/>
+    </row>
+    <row r="18" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H18" s="91"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
   <dimension ref="A1:P103"/>
   <sheetViews>
@@ -27028,328 +27958,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:K32"/>
-  <sheetViews>
-    <sheetView topLeftCell="I4" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14:K26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A1" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="C1" s="10">
-        <v>2010</v>
-      </c>
-      <c r="D1" s="10">
-        <v>2011</v>
-      </c>
-      <c r="E1" s="10">
-        <v>2012</v>
-      </c>
-      <c r="F1" s="10">
-        <v>2013</v>
-      </c>
-      <c r="G1" s="10">
-        <v>2014</v>
-      </c>
-      <c r="H1" s="10">
-        <v>2015</v>
-      </c>
-      <c r="I1" s="10">
-        <v>2016</v>
-      </c>
-      <c r="J1" s="10">
-        <v>2017</v>
-      </c>
-      <c r="K1" s="10">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A2" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97">
-        <f>SUM(Distributions!$C$4:$C$5)</f>
-        <v>9.2017441860465135E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B3" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97"/>
-      <c r="K3" s="97">
-        <f>SUM(Distributions!D$4:D$5)</f>
-        <v>9.2017441860465135E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B4" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97"/>
-      <c r="K4" s="97">
-        <f>SUM(Distributions!E$4:E$5)</f>
-        <v>0.13456686046511629</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B5" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="97"/>
-      <c r="D5" s="97"/>
-      <c r="E5" s="97"/>
-      <c r="F5" s="97"/>
-      <c r="G5" s="97"/>
-      <c r="H5" s="97"/>
-      <c r="I5" s="97"/>
-      <c r="J5" s="97"/>
-      <c r="K5" s="97">
-        <f>SUM(Distributions!F$4:F$5)</f>
-        <v>0.26325290697674419</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B6" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="97"/>
-      <c r="D6" s="97"/>
-      <c r="E6" s="97"/>
-      <c r="F6" s="97"/>
-      <c r="G6" s="97"/>
-      <c r="H6" s="97"/>
-      <c r="I6" s="97"/>
-      <c r="J6" s="97"/>
-      <c r="K6" s="97">
-        <f>SUM(Distributions!G$4:G$5)</f>
-        <v>0.27238546511627909</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A8" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="K8" s="97">
-        <f>SUM(Distributions!C10:C11)</f>
-        <v>9.4E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B9" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="K9" s="97">
-        <f>SUM(Distributions!D10:D11)</f>
-        <v>9.4E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B10" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="K10" s="97">
-        <f>SUM(Distributions!E10:E11)</f>
-        <v>7.1500000000000008E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B11" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="K11" s="97">
-        <f>SUM(Distributions!F10:F11)</f>
-        <v>5.2500000000000005E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B12" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="K12" s="97">
-        <f>SUM(Distributions!G10:G11)</f>
-        <v>2.9699999999999997E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A14" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="K14" s="150">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B15" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="K15" s="150">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B16" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="K16" s="150">
-        <v>0.28560000000000002</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B17" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="K17" s="150">
-        <v>0.28560000000000002</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B18" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="K18" s="150">
-        <v>0.28560000000000002</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B19" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="K19" s="150">
-        <v>0.35868</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B20" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="K20" s="150">
-        <v>0.35868</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B21" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="K21" s="150">
-        <v>0.35868</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B22" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="K22" s="150">
-        <v>0.35868</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B23" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="K23" s="150">
-        <v>0.25619999999999998</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B24" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="K24" s="150">
-        <v>0.25619999999999998</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B25" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="K25" s="150">
-        <v>0.25619999999999998</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B26" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="K26" s="150">
-        <v>0.25619999999999998</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A28" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B29" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B30" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B31" s="10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B32" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
@@ -27415,11 +28024,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
   <dimension ref="A1:B52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+    <sheetView topLeftCell="A38" workbookViewId="0">
       <selection activeCell="A52" sqref="A52:B52"/>
     </sheetView>
   </sheetViews>
@@ -27764,6 +28373,327 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:K32"/>
+  <sheetViews>
+    <sheetView topLeftCell="I4" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14:K26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="C1" s="10">
+        <v>2010</v>
+      </c>
+      <c r="D1" s="10">
+        <v>2011</v>
+      </c>
+      <c r="E1" s="10">
+        <v>2012</v>
+      </c>
+      <c r="F1" s="10">
+        <v>2013</v>
+      </c>
+      <c r="G1" s="10">
+        <v>2014</v>
+      </c>
+      <c r="H1" s="10">
+        <v>2015</v>
+      </c>
+      <c r="I1" s="10">
+        <v>2016</v>
+      </c>
+      <c r="J1" s="10">
+        <v>2017</v>
+      </c>
+      <c r="K1" s="10">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97">
+        <f>SUM(Distributions!$C$4:$C$5)</f>
+        <v>9.2017441860465135E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97">
+        <f>SUM(Distributions!D$4:D$5)</f>
+        <v>9.2017441860465135E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="97"/>
+      <c r="K4" s="97">
+        <f>SUM(Distributions!E$4:E$5)</f>
+        <v>0.13456686046511629</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="97"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="97"/>
+      <c r="G5" s="97"/>
+      <c r="H5" s="97"/>
+      <c r="I5" s="97"/>
+      <c r="J5" s="97"/>
+      <c r="K5" s="97">
+        <f>SUM(Distributions!F$4:F$5)</f>
+        <v>0.26325290697674419</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B6" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="97"/>
+      <c r="D6" s="97"/>
+      <c r="E6" s="97"/>
+      <c r="F6" s="97"/>
+      <c r="G6" s="97"/>
+      <c r="H6" s="97"/>
+      <c r="I6" s="97"/>
+      <c r="J6" s="97"/>
+      <c r="K6" s="97">
+        <f>SUM(Distributions!G$4:G$5)</f>
+        <v>0.27238546511627909</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A8" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="K8" s="97">
+        <f>SUM(Distributions!C10:C11)</f>
+        <v>9.4E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B9" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K9" s="97">
+        <f>SUM(Distributions!D10:D11)</f>
+        <v>9.4E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B10" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="K10" s="97">
+        <f>SUM(Distributions!E10:E11)</f>
+        <v>7.1500000000000008E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B11" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K11" s="97">
+        <f>SUM(Distributions!F10:F11)</f>
+        <v>5.2500000000000005E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B12" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="K12" s="97">
+        <f>SUM(Distributions!G10:G11)</f>
+        <v>2.9699999999999997E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A14" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="K14" s="150">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B15" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K15" s="150">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B16" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="K16" s="150">
+        <v>0.28560000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B17" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K17" s="150">
+        <v>0.28560000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B18" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="K18" s="150">
+        <v>0.28560000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B19" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="K19" s="150">
+        <v>0.35868</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B20" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="K20" s="150">
+        <v>0.35868</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B21" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="K21" s="150">
+        <v>0.35868</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B22" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="K22" s="150">
+        <v>0.35868</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B23" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="K23" s="150">
+        <v>0.25619999999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B24" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="K24" s="150">
+        <v>0.25619999999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B25" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="K25" s="150">
+        <v>0.25619999999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B26" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="K26" s="150">
+        <v>0.25619999999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A28" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B29" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B30" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B31" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B32" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J28"/>
   <sheetViews>
@@ -28688,7 +29618,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G17"/>
   <sheetViews>
@@ -29006,7 +29936,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
@@ -29158,7 +30088,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:O7"/>
   <sheetViews>
@@ -29490,7 +30420,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C15"/>
   <sheetViews>
@@ -29638,577 +30568,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:G38"/>
-  <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:F19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" s="148">
-        <f>1-D2-E2-F2</f>
-        <v>0.81043023255813951</v>
-      </c>
-      <c r="D2" s="149">
-        <v>0.11035174418604651</v>
-      </c>
-      <c r="E2" s="149">
-        <v>6.6487790697674423E-2</v>
-      </c>
-      <c r="F2" s="149">
-        <v>1.2730232558139536E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="10"/>
-      <c r="C3" s="138"/>
-      <c r="D3" s="139"/>
-      <c r="E3" s="139"/>
-      <c r="F3" s="139"/>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="10"/>
-      <c r="C4" s="138"/>
-      <c r="D4" s="139"/>
-      <c r="E4" s="139"/>
-      <c r="F4" s="139"/>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="B5" t="s">
-        <v>263</v>
-      </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="11">
-        <v>1.53</v>
-      </c>
-      <c r="E5" s="11">
-        <v>1.32</v>
-      </c>
-      <c r="F5" s="11">
-        <v>1.53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>264</v>
-      </c>
-      <c r="C6" s="6">
-        <v>1</v>
-      </c>
-      <c r="D6" s="6">
-        <v>5</v>
-      </c>
-      <c r="E6" s="6">
-        <v>6.4</v>
-      </c>
-      <c r="F6" s="6">
-        <v>46.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>143</v>
-      </c>
-      <c r="C7" s="36">
-        <v>1</v>
-      </c>
-      <c r="D7" s="36">
-        <v>2.52</v>
-      </c>
-      <c r="E7" s="36">
-        <v>1.96</v>
-      </c>
-      <c r="F7" s="36">
-        <v>4.1900000000000004</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>144</v>
-      </c>
-      <c r="C8" s="36">
-        <v>1</v>
-      </c>
-      <c r="D8" s="36">
-        <v>2.52</v>
-      </c>
-      <c r="E8" s="36">
-        <v>1.96</v>
-      </c>
-      <c r="F8" s="36">
-        <v>4.1900000000000004</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="10"/>
-      <c r="C9" s="5"/>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="10"/>
-    </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="10"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-    </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="C12" s="5">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12" s="5">
-        <v>1</v>
-      </c>
-      <c r="F12" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="5">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>2.0099999999999998</v>
-      </c>
-      <c r="E13" s="5">
-        <v>3.39</v>
-      </c>
-      <c r="F13" s="5">
-        <v>11.89</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="5">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>2.0099999999999998</v>
-      </c>
-      <c r="E14" s="5">
-        <v>3.39</v>
-      </c>
-      <c r="F14" s="5">
-        <v>11.89</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="5">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>2.0099999999999998</v>
-      </c>
-      <c r="E15" s="5">
-        <v>3.39</v>
-      </c>
-      <c r="F15" s="5">
-        <v>11.89</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="5">
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16" s="5">
-        <v>999.99</v>
-      </c>
-      <c r="F16" s="5">
-        <v>999.99</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="5">
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17" s="5">
-        <v>1</v>
-      </c>
-      <c r="F17" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" s="5">
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18" s="5">
-        <v>1</v>
-      </c>
-      <c r="F18" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="5">
-        <v>1</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19" s="5">
-        <v>1</v>
-      </c>
-      <c r="F19" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="10"/>
-    </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="B23" s="64" t="s">
-        <v>188</v>
-      </c>
-      <c r="C23" s="67">
-        <v>1</v>
-      </c>
-      <c r="D23" s="67">
-        <v>1.52</v>
-      </c>
-      <c r="E23" s="67">
-        <v>1.75</v>
-      </c>
-      <c r="F23" s="67">
-        <v>3.14</v>
-      </c>
-      <c r="G23" s="68"/>
-    </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="64" t="s">
-        <v>189</v>
-      </c>
-      <c r="C24" s="67">
-        <v>1</v>
-      </c>
-      <c r="D24" s="67">
-        <v>1.2</v>
-      </c>
-      <c r="E24" s="67">
-        <v>1.4</v>
-      </c>
-      <c r="F24" s="67">
-        <v>1.6</v>
-      </c>
-      <c r="G24" s="68"/>
-    </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="64" t="s">
-        <v>190</v>
-      </c>
-      <c r="C25" s="67">
-        <v>1</v>
-      </c>
-      <c r="D25" s="67">
-        <v>1.2</v>
-      </c>
-      <c r="E25" s="67">
-        <v>1.4</v>
-      </c>
-      <c r="F25" s="67">
-        <v>1.6</v>
-      </c>
-      <c r="G25" s="68"/>
-    </row>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="65" t="s">
-        <v>191</v>
-      </c>
-      <c r="C26" s="67">
-        <v>1</v>
-      </c>
-      <c r="D26" s="67">
-        <v>1.52</v>
-      </c>
-      <c r="E26" s="67">
-        <v>1.75</v>
-      </c>
-      <c r="F26" s="67">
-        <v>1.73</v>
-      </c>
-      <c r="G26" s="68"/>
-    </row>
-    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="65" t="s">
-        <v>192</v>
-      </c>
-      <c r="C27" s="67">
-        <v>1</v>
-      </c>
-      <c r="D27" s="67">
-        <v>1</v>
-      </c>
-      <c r="E27" s="67">
-        <v>1</v>
-      </c>
-      <c r="F27" s="67">
-        <v>1</v>
-      </c>
-      <c r="G27" s="68"/>
-    </row>
-    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="65" t="s">
-        <v>193</v>
-      </c>
-      <c r="C28" s="67">
-        <v>1</v>
-      </c>
-      <c r="D28" s="67">
-        <v>1</v>
-      </c>
-      <c r="E28" s="67">
-        <v>1</v>
-      </c>
-      <c r="F28" s="67">
-        <v>1</v>
-      </c>
-      <c r="G28" s="68"/>
-    </row>
-    <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="66" t="s">
-        <v>194</v>
-      </c>
-      <c r="C29" s="67">
-        <v>1</v>
-      </c>
-      <c r="D29" s="67">
-        <v>1.52</v>
-      </c>
-      <c r="E29" s="67">
-        <v>1.75</v>
-      </c>
-      <c r="F29" s="67">
-        <v>1.52</v>
-      </c>
-      <c r="G29" s="68"/>
-    </row>
-    <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="66" t="s">
-        <v>195</v>
-      </c>
-      <c r="C30" s="67">
-        <v>1</v>
-      </c>
-      <c r="D30" s="67">
-        <v>1</v>
-      </c>
-      <c r="E30" s="67">
-        <v>1.33</v>
-      </c>
-      <c r="F30" s="67">
-        <v>1</v>
-      </c>
-      <c r="G30" s="68"/>
-    </row>
-    <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="66" t="s">
-        <v>196</v>
-      </c>
-      <c r="C31" s="67">
-        <v>1</v>
-      </c>
-      <c r="D31" s="67">
-        <v>1</v>
-      </c>
-      <c r="E31" s="67">
-        <v>1.33</v>
-      </c>
-      <c r="F31" s="67">
-        <v>1</v>
-      </c>
-      <c r="G31" s="68"/>
-    </row>
-    <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="63"/>
-      <c r="C32" s="67"/>
-      <c r="D32" s="67"/>
-      <c r="E32" s="67"/>
-      <c r="F32" s="67"/>
-      <c r="G32" s="68"/>
-    </row>
-    <row r="33" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C33" s="68"/>
-      <c r="D33" s="68"/>
-      <c r="E33" s="68"/>
-      <c r="F33" s="68"/>
-      <c r="G33" s="68"/>
-    </row>
-    <row r="34" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="10"/>
-      <c r="C34" s="69"/>
-      <c r="D34" s="69"/>
-      <c r="E34" s="69"/>
-      <c r="F34" s="69"/>
-      <c r="G34" s="68"/>
-    </row>
-    <row r="35" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="B35" s="63" t="s">
-        <v>184</v>
-      </c>
-      <c r="C35" s="67">
-        <v>1</v>
-      </c>
-      <c r="D35" s="70">
-        <v>1</v>
-      </c>
-      <c r="E35" s="70">
-        <v>1</v>
-      </c>
-      <c r="F35" s="70">
-        <v>1</v>
-      </c>
-      <c r="G35" s="68"/>
-    </row>
-    <row r="36" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="63" t="s">
-        <v>185</v>
-      </c>
-      <c r="C36" s="67">
-        <v>1</v>
-      </c>
-      <c r="D36" s="70">
-        <v>1.41</v>
-      </c>
-      <c r="E36" s="70">
-        <v>1.49</v>
-      </c>
-      <c r="F36" s="70">
-        <v>3.03</v>
-      </c>
-      <c r="G36" s="68"/>
-    </row>
-    <row r="37" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="63" t="s">
-        <v>186</v>
-      </c>
-      <c r="C37" s="67">
-        <v>1</v>
-      </c>
-      <c r="D37" s="70">
-        <v>1.18</v>
-      </c>
-      <c r="E37" s="70">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F37" s="70">
-        <v>1.77</v>
-      </c>
-      <c r="G37" s="68"/>
-    </row>
-    <row r="38" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="63" t="s">
-        <v>187</v>
-      </c>
-      <c r="C38" s="67">
-        <v>1</v>
-      </c>
-      <c r="D38" s="70">
-        <v>1</v>
-      </c>
-      <c r="E38" s="70">
-        <v>1</v>
-      </c>
-      <c r="F38" s="70">
-        <v>1</v>
-      </c>
-      <c r="G38" s="68"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
 </file>
--- a/input_spreadsheets/Tanzania/regions/InputForCode_Kusini_Pemba.xlsx
+++ b/input_spreadsheets/Tanzania/regions/InputForCode_Kusini_Pemba.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/Github Projects/Nutrition/input_spreadsheets/Tanzania/regions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{61A3EC06-2CC9-CE4D-A2C1-056E301F057F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{44619FC7-056B-B440-9479-D0D5825D576E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="20740" windowHeight="11760" tabRatio="883" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20740" windowHeight="11760" tabRatio="883" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Expenditure &amp; budget" sheetId="47" r:id="rId1"/>
@@ -4208,7 +4208,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1427" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1425" uniqueCount="275">
   <si>
     <t>year</t>
   </si>
@@ -5023,9 +5023,6 @@
     <t>under 5</t>
   </si>
   <si>
-    <t>Not used/needed</t>
-  </si>
-  <si>
     <t>Kangaroo mother care</t>
   </si>
   <si>
@@ -6495,13 +6492,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="739" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="739" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="739" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="740">
     <cellStyle name="Comma" xfId="9" builtinId="3"/>
@@ -8869,36 +8866,36 @@
   </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="17.5" style="158" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" style="158" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="158"/>
+    <col min="1" max="1" width="17.5" style="157" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" style="157" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="157"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="157" t="s">
+      <c r="A1" s="156" t="s">
         <v>253</v>
       </c>
-      <c r="B1" s="157" t="s">
+      <c r="B1" s="156" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="156" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="157" t="s">
+      <c r="B2" s="158"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="156" t="s">
         <v>274</v>
       </c>
-      <c r="B2" s="159"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="157" t="s">
-        <v>275</v>
-      </c>
-      <c r="B3" s="160"/>
+      <c r="B3" s="159"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13851,7 +13848,7 @@
         <v>233</v>
       </c>
       <c r="B18" s="152" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C18" s="153">
         <v>1.5</v>
@@ -13996,7 +13993,7 @@
       <c r="A2" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="B2" s="156" t="s">
+      <c r="B2" s="160" t="s">
         <v>72</v>
       </c>
       <c r="C2" t="s">
@@ -14019,7 +14016,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B3" s="156"/>
+      <c r="B3" s="160"/>
       <c r="C3" t="s">
         <v>150</v>
       </c>
@@ -14041,7 +14038,7 @@
       <c r="J3" s="37"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B4" s="156"/>
+      <c r="B4" s="160"/>
       <c r="C4" t="s">
         <v>160</v>
       </c>
@@ -14063,7 +14060,7 @@
       <c r="J4" s="37"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B5" s="156" t="s">
+      <c r="B5" s="160" t="s">
         <v>6</v>
       </c>
       <c r="C5" t="s">
@@ -14086,7 +14083,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B6" s="156"/>
+      <c r="B6" s="160"/>
       <c r="C6" t="s">
         <v>150</v>
       </c>
@@ -14107,7 +14104,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B7" s="156"/>
+      <c r="B7" s="160"/>
       <c r="C7" t="s">
         <v>160</v>
       </c>
@@ -14128,7 +14125,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B8" s="156" t="s">
+      <c r="B8" s="160" t="s">
         <v>7</v>
       </c>
       <c r="C8" t="s">
@@ -14151,7 +14148,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B9" s="156"/>
+      <c r="B9" s="160"/>
       <c r="C9" t="s">
         <v>150</v>
       </c>
@@ -14172,7 +14169,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B10" s="156"/>
+      <c r="B10" s="160"/>
       <c r="C10" t="s">
         <v>160</v>
       </c>
@@ -14193,7 +14190,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B11" s="156" t="s">
+      <c r="B11" s="160" t="s">
         <v>8</v>
       </c>
       <c r="C11" t="s">
@@ -14216,7 +14213,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B12" s="156"/>
+      <c r="B12" s="160"/>
       <c r="C12" t="s">
         <v>150</v>
       </c>
@@ -14237,7 +14234,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B13" s="156"/>
+      <c r="B13" s="160"/>
       <c r="C13" t="s">
         <v>160</v>
       </c>
@@ -14258,7 +14255,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B14" s="156" t="s">
+      <c r="B14" s="160" t="s">
         <v>9</v>
       </c>
       <c r="C14" t="s">
@@ -14281,7 +14278,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B15" s="156"/>
+      <c r="B15" s="160"/>
       <c r="C15" t="s">
         <v>150</v>
       </c>
@@ -14302,7 +14299,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B16" s="156"/>
+      <c r="B16" s="160"/>
       <c r="C16" t="s">
         <v>160</v>
       </c>
@@ -14356,7 +14353,7 @@
       <c r="A19" s="41" t="s">
         <v>154</v>
       </c>
-      <c r="B19" s="156" t="s">
+      <c r="B19" s="160" t="s">
         <v>72</v>
       </c>
       <c r="C19" t="s">
@@ -14379,7 +14376,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B20" s="156"/>
+      <c r="B20" s="160"/>
       <c r="C20" t="s">
         <v>150</v>
       </c>
@@ -14400,7 +14397,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B21" s="156"/>
+      <c r="B21" s="160"/>
       <c r="C21" t="s">
         <v>160</v>
       </c>
@@ -14421,7 +14418,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B22" s="156" t="s">
+      <c r="B22" s="160" t="s">
         <v>6</v>
       </c>
       <c r="C22" t="s">
@@ -14444,7 +14441,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B23" s="156"/>
+      <c r="B23" s="160"/>
       <c r="C23" t="s">
         <v>150</v>
       </c>
@@ -14465,7 +14462,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B24" s="156"/>
+      <c r="B24" s="160"/>
       <c r="C24" t="s">
         <v>160</v>
       </c>
@@ -14486,7 +14483,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B25" s="156" t="s">
+      <c r="B25" s="160" t="s">
         <v>7</v>
       </c>
       <c r="C25" t="s">
@@ -14509,7 +14506,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B26" s="156"/>
+      <c r="B26" s="160"/>
       <c r="C26" t="s">
         <v>150</v>
       </c>
@@ -14530,7 +14527,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B27" s="156"/>
+      <c r="B27" s="160"/>
       <c r="C27" t="s">
         <v>160</v>
       </c>
@@ -14551,7 +14548,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B28" s="156" t="s">
+      <c r="B28" s="160" t="s">
         <v>8</v>
       </c>
       <c r="C28" t="s">
@@ -14574,7 +14571,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B29" s="156"/>
+      <c r="B29" s="160"/>
       <c r="C29" t="s">
         <v>150</v>
       </c>
@@ -14595,7 +14592,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B30" s="156"/>
+      <c r="B30" s="160"/>
       <c r="C30" t="s">
         <v>160</v>
       </c>
@@ -14616,7 +14613,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B31" s="156" t="s">
+      <c r="B31" s="160" t="s">
         <v>9</v>
       </c>
       <c r="C31" t="s">
@@ -14639,7 +14636,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B32" s="156"/>
+      <c r="B32" s="160"/>
       <c r="C32" t="s">
         <v>150</v>
       </c>
@@ -14660,7 +14657,7 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B33" s="156"/>
+      <c r="B33" s="160"/>
       <c r="C33" t="s">
         <v>160</v>
       </c>
@@ -14707,7 +14704,7 @@
       <c r="A36" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="B36" s="156" t="s">
+      <c r="B36" s="160" t="s">
         <v>72</v>
       </c>
       <c r="C36" t="s">
@@ -14730,7 +14727,7 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B37" s="156"/>
+      <c r="B37" s="160"/>
       <c r="C37" t="s">
         <v>150</v>
       </c>
@@ -14751,7 +14748,7 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B38" s="156"/>
+      <c r="B38" s="160"/>
       <c r="C38" t="s">
         <v>160</v>
       </c>
@@ -14773,7 +14770,7 @@
       <c r="I38" s="37"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B39" s="156" t="s">
+      <c r="B39" s="160" t="s">
         <v>6</v>
       </c>
       <c r="C39" t="s">
@@ -14796,7 +14793,7 @@
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B40" s="156"/>
+      <c r="B40" s="160"/>
       <c r="C40" t="s">
         <v>150</v>
       </c>
@@ -14817,7 +14814,7 @@
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B41" s="156"/>
+      <c r="B41" s="160"/>
       <c r="C41" t="s">
         <v>160</v>
       </c>
@@ -14838,7 +14835,7 @@
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B42" s="156" t="s">
+      <c r="B42" s="160" t="s">
         <v>7</v>
       </c>
       <c r="C42" t="s">
@@ -14861,7 +14858,7 @@
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B43" s="156"/>
+      <c r="B43" s="160"/>
       <c r="C43" t="s">
         <v>150</v>
       </c>
@@ -14882,7 +14879,7 @@
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B44" s="156"/>
+      <c r="B44" s="160"/>
       <c r="C44" t="s">
         <v>160</v>
       </c>
@@ -14903,7 +14900,7 @@
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B45" s="156" t="s">
+      <c r="B45" s="160" t="s">
         <v>8</v>
       </c>
       <c r="C45" t="s">
@@ -14926,7 +14923,7 @@
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B46" s="156"/>
+      <c r="B46" s="160"/>
       <c r="C46" t="s">
         <v>150</v>
       </c>
@@ -14947,7 +14944,7 @@
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B47" s="156"/>
+      <c r="B47" s="160"/>
       <c r="C47" t="s">
         <v>160</v>
       </c>
@@ -14968,7 +14965,7 @@
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B48" s="156" t="s">
+      <c r="B48" s="160" t="s">
         <v>9</v>
       </c>
       <c r="C48" t="s">
@@ -14991,7 +14988,7 @@
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B49" s="156"/>
+      <c r="B49" s="160"/>
       <c r="C49" t="s">
         <v>150</v>
       </c>
@@ -15012,7 +15009,7 @@
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B50" s="156"/>
+      <c r="B50" s="160"/>
       <c r="C50" t="s">
         <v>160</v>
       </c>
@@ -15057,6 +15054,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B48:B50"/>
     <mergeCell ref="B25:B27"/>
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="B31:B33"/>
@@ -15067,11 +15069,6 @@
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B48:B50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -18979,7 +18976,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A53" s="152" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B53" s="152" t="s">
         <v>21</v>
@@ -20090,7 +20087,7 @@
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="152"/>
       <c r="B14" s="152" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C14" s="108">
         <v>1</v>
@@ -22518,7 +22515,7 @@
     <row r="14" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A14" s="152"/>
       <c r="B14" s="152" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C14" s="108">
         <v>1</v>
@@ -24632,7 +24629,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" s="152" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -25179,7 +25176,7 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A52" s="152" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B52" s="152"/>
       <c r="C52" s="152"/>
@@ -26235,7 +26232,7 @@
     </row>
     <row r="52" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="152" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B52" s="154">
         <v>0</v>
@@ -27936,7 +27933,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A102" s="152" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B102" s="152" t="s">
         <v>254</v>
@@ -27945,7 +27942,7 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A103" s="152" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B103" s="152" t="s">
         <v>255</v>
@@ -28361,7 +28358,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A52" s="152" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B52" s="152" t="s">
         <v>161</v>
@@ -30092,8 +30089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:O7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -30249,12 +30246,8 @@
     <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4" s="10"/>
       <c r="B4" s="10"/>
-      <c r="C4" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>271</v>
-      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>

--- a/input_spreadsheets/Tanzania/regions/InputForCode_Kusini_Pemba.xlsx
+++ b/input_spreadsheets/Tanzania/regions/InputForCode_Kusini_Pemba.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/Github Projects/Nutrition/input_spreadsheets/Tanzania/regions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{44619FC7-056B-B440-9479-D0D5825D576E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{C312DE1B-82FF-3740-B993-00F87483DAFF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="20740" windowHeight="11760" tabRatio="883" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20740" windowHeight="11760" tabRatio="883" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Expenditure &amp; budget" sheetId="47" r:id="rId1"/>
@@ -6494,11 +6494,11 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="739" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="739" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="739" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="740">
     <cellStyle name="Comma" xfId="9" builtinId="3"/>
@@ -8866,8 +8866,8 @@
   </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -8889,13 +8889,15 @@
       <c r="A2" s="156" t="s">
         <v>273</v>
       </c>
-      <c r="B2" s="158"/>
+      <c r="B2" s="160">
+        <v>65000</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="156" t="s">
         <v>274</v>
       </c>
-      <c r="B3" s="159"/>
+      <c r="B3" s="158"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13993,7 +13995,7 @@
       <c r="A2" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="B2" s="160" t="s">
+      <c r="B2" s="159" t="s">
         <v>72</v>
       </c>
       <c r="C2" t="s">
@@ -14016,7 +14018,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B3" s="160"/>
+      <c r="B3" s="159"/>
       <c r="C3" t="s">
         <v>150</v>
       </c>
@@ -14038,7 +14040,7 @@
       <c r="J3" s="37"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B4" s="160"/>
+      <c r="B4" s="159"/>
       <c r="C4" t="s">
         <v>160</v>
       </c>
@@ -14060,7 +14062,7 @@
       <c r="J4" s="37"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B5" s="160" t="s">
+      <c r="B5" s="159" t="s">
         <v>6</v>
       </c>
       <c r="C5" t="s">
@@ -14083,7 +14085,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B6" s="160"/>
+      <c r="B6" s="159"/>
       <c r="C6" t="s">
         <v>150</v>
       </c>
@@ -14104,7 +14106,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B7" s="160"/>
+      <c r="B7" s="159"/>
       <c r="C7" t="s">
         <v>160</v>
       </c>
@@ -14125,7 +14127,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B8" s="160" t="s">
+      <c r="B8" s="159" t="s">
         <v>7</v>
       </c>
       <c r="C8" t="s">
@@ -14148,7 +14150,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B9" s="160"/>
+      <c r="B9" s="159"/>
       <c r="C9" t="s">
         <v>150</v>
       </c>
@@ -14169,7 +14171,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B10" s="160"/>
+      <c r="B10" s="159"/>
       <c r="C10" t="s">
         <v>160</v>
       </c>
@@ -14190,7 +14192,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B11" s="160" t="s">
+      <c r="B11" s="159" t="s">
         <v>8</v>
       </c>
       <c r="C11" t="s">
@@ -14213,7 +14215,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B12" s="160"/>
+      <c r="B12" s="159"/>
       <c r="C12" t="s">
         <v>150</v>
       </c>
@@ -14234,7 +14236,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B13" s="160"/>
+      <c r="B13" s="159"/>
       <c r="C13" t="s">
         <v>160</v>
       </c>
@@ -14255,7 +14257,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B14" s="160" t="s">
+      <c r="B14" s="159" t="s">
         <v>9</v>
       </c>
       <c r="C14" t="s">
@@ -14278,7 +14280,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B15" s="160"/>
+      <c r="B15" s="159"/>
       <c r="C15" t="s">
         <v>150</v>
       </c>
@@ -14299,7 +14301,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B16" s="160"/>
+      <c r="B16" s="159"/>
       <c r="C16" t="s">
         <v>160</v>
       </c>
@@ -14353,7 +14355,7 @@
       <c r="A19" s="41" t="s">
         <v>154</v>
       </c>
-      <c r="B19" s="160" t="s">
+      <c r="B19" s="159" t="s">
         <v>72</v>
       </c>
       <c r="C19" t="s">
@@ -14376,7 +14378,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B20" s="160"/>
+      <c r="B20" s="159"/>
       <c r="C20" t="s">
         <v>150</v>
       </c>
@@ -14397,7 +14399,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B21" s="160"/>
+      <c r="B21" s="159"/>
       <c r="C21" t="s">
         <v>160</v>
       </c>
@@ -14418,7 +14420,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B22" s="160" t="s">
+      <c r="B22" s="159" t="s">
         <v>6</v>
       </c>
       <c r="C22" t="s">
@@ -14441,7 +14443,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B23" s="160"/>
+      <c r="B23" s="159"/>
       <c r="C23" t="s">
         <v>150</v>
       </c>
@@ -14462,7 +14464,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B24" s="160"/>
+      <c r="B24" s="159"/>
       <c r="C24" t="s">
         <v>160</v>
       </c>
@@ -14483,7 +14485,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B25" s="160" t="s">
+      <c r="B25" s="159" t="s">
         <v>7</v>
       </c>
       <c r="C25" t="s">
@@ -14506,7 +14508,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B26" s="160"/>
+      <c r="B26" s="159"/>
       <c r="C26" t="s">
         <v>150</v>
       </c>
@@ -14527,7 +14529,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B27" s="160"/>
+      <c r="B27" s="159"/>
       <c r="C27" t="s">
         <v>160</v>
       </c>
@@ -14548,7 +14550,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B28" s="160" t="s">
+      <c r="B28" s="159" t="s">
         <v>8</v>
       </c>
       <c r="C28" t="s">
@@ -14571,7 +14573,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B29" s="160"/>
+      <c r="B29" s="159"/>
       <c r="C29" t="s">
         <v>150</v>
       </c>
@@ -14592,7 +14594,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B30" s="160"/>
+      <c r="B30" s="159"/>
       <c r="C30" t="s">
         <v>160</v>
       </c>
@@ -14613,7 +14615,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B31" s="160" t="s">
+      <c r="B31" s="159" t="s">
         <v>9</v>
       </c>
       <c r="C31" t="s">
@@ -14636,7 +14638,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B32" s="160"/>
+      <c r="B32" s="159"/>
       <c r="C32" t="s">
         <v>150</v>
       </c>
@@ -14657,7 +14659,7 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B33" s="160"/>
+      <c r="B33" s="159"/>
       <c r="C33" t="s">
         <v>160</v>
       </c>
@@ -14704,7 +14706,7 @@
       <c r="A36" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="B36" s="160" t="s">
+      <c r="B36" s="159" t="s">
         <v>72</v>
       </c>
       <c r="C36" t="s">
@@ -14727,7 +14729,7 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B37" s="160"/>
+      <c r="B37" s="159"/>
       <c r="C37" t="s">
         <v>150</v>
       </c>
@@ -14748,7 +14750,7 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B38" s="160"/>
+      <c r="B38" s="159"/>
       <c r="C38" t="s">
         <v>160</v>
       </c>
@@ -14770,7 +14772,7 @@
       <c r="I38" s="37"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B39" s="160" t="s">
+      <c r="B39" s="159" t="s">
         <v>6</v>
       </c>
       <c r="C39" t="s">
@@ -14793,7 +14795,7 @@
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B40" s="160"/>
+      <c r="B40" s="159"/>
       <c r="C40" t="s">
         <v>150</v>
       </c>
@@ -14814,7 +14816,7 @@
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B41" s="160"/>
+      <c r="B41" s="159"/>
       <c r="C41" t="s">
         <v>160</v>
       </c>
@@ -14835,7 +14837,7 @@
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B42" s="160" t="s">
+      <c r="B42" s="159" t="s">
         <v>7</v>
       </c>
       <c r="C42" t="s">
@@ -14858,7 +14860,7 @@
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B43" s="160"/>
+      <c r="B43" s="159"/>
       <c r="C43" t="s">
         <v>150</v>
       </c>
@@ -14879,7 +14881,7 @@
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B44" s="160"/>
+      <c r="B44" s="159"/>
       <c r="C44" t="s">
         <v>160</v>
       </c>
@@ -14900,7 +14902,7 @@
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B45" s="160" t="s">
+      <c r="B45" s="159" t="s">
         <v>8</v>
       </c>
       <c r="C45" t="s">
@@ -14923,7 +14925,7 @@
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B46" s="160"/>
+      <c r="B46" s="159"/>
       <c r="C46" t="s">
         <v>150</v>
       </c>
@@ -14944,7 +14946,7 @@
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B47" s="160"/>
+      <c r="B47" s="159"/>
       <c r="C47" t="s">
         <v>160</v>
       </c>
@@ -14965,7 +14967,7 @@
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B48" s="160" t="s">
+      <c r="B48" s="159" t="s">
         <v>9</v>
       </c>
       <c r="C48" t="s">
@@ -14988,7 +14990,7 @@
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B49" s="160"/>
+      <c r="B49" s="159"/>
       <c r="C49" t="s">
         <v>150</v>
       </c>
@@ -15009,7 +15011,7 @@
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B50" s="160"/>
+      <c r="B50" s="159"/>
       <c r="C50" t="s">
         <v>160</v>
       </c>
@@ -15054,11 +15056,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B48:B50"/>
     <mergeCell ref="B25:B27"/>
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="B31:B33"/>
@@ -15069,6 +15066,11 @@
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B48:B50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -17325,7 +17327,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
@@ -30089,7 +30091,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>

--- a/input_spreadsheets/Tanzania/regions/InputForCode_Kusini_Pemba.xlsx
+++ b/input_spreadsheets/Tanzania/regions/InputForCode_Kusini_Pemba.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/Github Projects/Nutrition/input_spreadsheets/Tanzania/regions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{C312DE1B-82FF-3740-B993-00F87483DAFF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{118CF442-D2FC-BC45-B673-5375443F8C2D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="20740" windowHeight="11760" tabRatio="883" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6495,10 +6495,10 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="739" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="739" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="739" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="740">
     <cellStyle name="Comma" xfId="9" builtinId="3"/>
@@ -8867,7 +8867,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -8889,9 +8889,7 @@
       <c r="A2" s="156" t="s">
         <v>273</v>
       </c>
-      <c r="B2" s="160">
-        <v>65000</v>
-      </c>
+      <c r="B2" s="159"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="156" t="s">
@@ -13995,7 +13993,7 @@
       <c r="A2" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="B2" s="159" t="s">
+      <c r="B2" s="160" t="s">
         <v>72</v>
       </c>
       <c r="C2" t="s">
@@ -14018,7 +14016,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B3" s="159"/>
+      <c r="B3" s="160"/>
       <c r="C3" t="s">
         <v>150</v>
       </c>
@@ -14040,7 +14038,7 @@
       <c r="J3" s="37"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B4" s="159"/>
+      <c r="B4" s="160"/>
       <c r="C4" t="s">
         <v>160</v>
       </c>
@@ -14062,7 +14060,7 @@
       <c r="J4" s="37"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B5" s="159" t="s">
+      <c r="B5" s="160" t="s">
         <v>6</v>
       </c>
       <c r="C5" t="s">
@@ -14085,7 +14083,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B6" s="159"/>
+      <c r="B6" s="160"/>
       <c r="C6" t="s">
         <v>150</v>
       </c>
@@ -14106,7 +14104,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B7" s="159"/>
+      <c r="B7" s="160"/>
       <c r="C7" t="s">
         <v>160</v>
       </c>
@@ -14127,7 +14125,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B8" s="159" t="s">
+      <c r="B8" s="160" t="s">
         <v>7</v>
       </c>
       <c r="C8" t="s">
@@ -14150,7 +14148,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B9" s="159"/>
+      <c r="B9" s="160"/>
       <c r="C9" t="s">
         <v>150</v>
       </c>
@@ -14171,7 +14169,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B10" s="159"/>
+      <c r="B10" s="160"/>
       <c r="C10" t="s">
         <v>160</v>
       </c>
@@ -14192,7 +14190,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B11" s="159" t="s">
+      <c r="B11" s="160" t="s">
         <v>8</v>
       </c>
       <c r="C11" t="s">
@@ -14215,7 +14213,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B12" s="159"/>
+      <c r="B12" s="160"/>
       <c r="C12" t="s">
         <v>150</v>
       </c>
@@ -14236,7 +14234,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B13" s="159"/>
+      <c r="B13" s="160"/>
       <c r="C13" t="s">
         <v>160</v>
       </c>
@@ -14257,7 +14255,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B14" s="159" t="s">
+      <c r="B14" s="160" t="s">
         <v>9</v>
       </c>
       <c r="C14" t="s">
@@ -14280,7 +14278,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B15" s="159"/>
+      <c r="B15" s="160"/>
       <c r="C15" t="s">
         <v>150</v>
       </c>
@@ -14301,7 +14299,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B16" s="159"/>
+      <c r="B16" s="160"/>
       <c r="C16" t="s">
         <v>160</v>
       </c>
@@ -14355,7 +14353,7 @@
       <c r="A19" s="41" t="s">
         <v>154</v>
       </c>
-      <c r="B19" s="159" t="s">
+      <c r="B19" s="160" t="s">
         <v>72</v>
       </c>
       <c r="C19" t="s">
@@ -14378,7 +14376,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B20" s="159"/>
+      <c r="B20" s="160"/>
       <c r="C20" t="s">
         <v>150</v>
       </c>
@@ -14399,7 +14397,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B21" s="159"/>
+      <c r="B21" s="160"/>
       <c r="C21" t="s">
         <v>160</v>
       </c>
@@ -14420,7 +14418,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B22" s="159" t="s">
+      <c r="B22" s="160" t="s">
         <v>6</v>
       </c>
       <c r="C22" t="s">
@@ -14443,7 +14441,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B23" s="159"/>
+      <c r="B23" s="160"/>
       <c r="C23" t="s">
         <v>150</v>
       </c>
@@ -14464,7 +14462,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B24" s="159"/>
+      <c r="B24" s="160"/>
       <c r="C24" t="s">
         <v>160</v>
       </c>
@@ -14485,7 +14483,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B25" s="159" t="s">
+      <c r="B25" s="160" t="s">
         <v>7</v>
       </c>
       <c r="C25" t="s">
@@ -14508,7 +14506,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B26" s="159"/>
+      <c r="B26" s="160"/>
       <c r="C26" t="s">
         <v>150</v>
       </c>
@@ -14529,7 +14527,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B27" s="159"/>
+      <c r="B27" s="160"/>
       <c r="C27" t="s">
         <v>160</v>
       </c>
@@ -14550,7 +14548,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B28" s="159" t="s">
+      <c r="B28" s="160" t="s">
         <v>8</v>
       </c>
       <c r="C28" t="s">
@@ -14573,7 +14571,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B29" s="159"/>
+      <c r="B29" s="160"/>
       <c r="C29" t="s">
         <v>150</v>
       </c>
@@ -14594,7 +14592,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B30" s="159"/>
+      <c r="B30" s="160"/>
       <c r="C30" t="s">
         <v>160</v>
       </c>
@@ -14615,7 +14613,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B31" s="159" t="s">
+      <c r="B31" s="160" t="s">
         <v>9</v>
       </c>
       <c r="C31" t="s">
@@ -14638,7 +14636,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B32" s="159"/>
+      <c r="B32" s="160"/>
       <c r="C32" t="s">
         <v>150</v>
       </c>
@@ -14659,7 +14657,7 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B33" s="159"/>
+      <c r="B33" s="160"/>
       <c r="C33" t="s">
         <v>160</v>
       </c>
@@ -14706,7 +14704,7 @@
       <c r="A36" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="B36" s="159" t="s">
+      <c r="B36" s="160" t="s">
         <v>72</v>
       </c>
       <c r="C36" t="s">
@@ -14729,7 +14727,7 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B37" s="159"/>
+      <c r="B37" s="160"/>
       <c r="C37" t="s">
         <v>150</v>
       </c>
@@ -14750,7 +14748,7 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B38" s="159"/>
+      <c r="B38" s="160"/>
       <c r="C38" t="s">
         <v>160</v>
       </c>
@@ -14772,7 +14770,7 @@
       <c r="I38" s="37"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B39" s="159" t="s">
+      <c r="B39" s="160" t="s">
         <v>6</v>
       </c>
       <c r="C39" t="s">
@@ -14795,7 +14793,7 @@
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B40" s="159"/>
+      <c r="B40" s="160"/>
       <c r="C40" t="s">
         <v>150</v>
       </c>
@@ -14816,7 +14814,7 @@
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B41" s="159"/>
+      <c r="B41" s="160"/>
       <c r="C41" t="s">
         <v>160</v>
       </c>
@@ -14837,7 +14835,7 @@
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B42" s="159" t="s">
+      <c r="B42" s="160" t="s">
         <v>7</v>
       </c>
       <c r="C42" t="s">
@@ -14860,7 +14858,7 @@
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B43" s="159"/>
+      <c r="B43" s="160"/>
       <c r="C43" t="s">
         <v>150</v>
       </c>
@@ -14881,7 +14879,7 @@
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B44" s="159"/>
+      <c r="B44" s="160"/>
       <c r="C44" t="s">
         <v>160</v>
       </c>
@@ -14902,7 +14900,7 @@
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B45" s="159" t="s">
+      <c r="B45" s="160" t="s">
         <v>8</v>
       </c>
       <c r="C45" t="s">
@@ -14925,7 +14923,7 @@
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B46" s="159"/>
+      <c r="B46" s="160"/>
       <c r="C46" t="s">
         <v>150</v>
       </c>
@@ -14946,7 +14944,7 @@
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B47" s="159"/>
+      <c r="B47" s="160"/>
       <c r="C47" t="s">
         <v>160</v>
       </c>
@@ -14967,7 +14965,7 @@
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B48" s="159" t="s">
+      <c r="B48" s="160" t="s">
         <v>9</v>
       </c>
       <c r="C48" t="s">
@@ -14990,7 +14988,7 @@
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B49" s="159"/>
+      <c r="B49" s="160"/>
       <c r="C49" t="s">
         <v>150</v>
       </c>
@@ -15011,7 +15009,7 @@
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B50" s="159"/>
+      <c r="B50" s="160"/>
       <c r="C50" t="s">
         <v>160</v>
       </c>
@@ -15056,6 +15054,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B48:B50"/>
     <mergeCell ref="B25:B27"/>
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="B31:B33"/>
@@ -15066,11 +15069,6 @@
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B48:B50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/input_spreadsheets/Tanzania/regions/InputForCode_Kusini_Pemba.xlsx
+++ b/input_spreadsheets/Tanzania/regions/InputForCode_Kusini_Pemba.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/Github Projects/Nutrition/input_spreadsheets/Tanzania/regions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{118CF442-D2FC-BC45-B673-5375443F8C2D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{05856681-EB37-F144-9CAB-0856936336B3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="20740" windowHeight="11760" tabRatio="883" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20740" windowHeight="11760" tabRatio="883" firstSheet="28" activeTab="28" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Expenditure &amp; budget" sheetId="47" r:id="rId1"/>
@@ -8866,7 +8866,7 @@
   </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -15054,11 +15054,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B48:B50"/>
     <mergeCell ref="B25:B27"/>
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="B31:B33"/>
@@ -15069,6 +15064,11 @@
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B48:B50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -25500,7 +25500,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
   <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
       <selection activeCell="A52" sqref="A52:D52"/>
     </sheetView>
   </sheetViews>
@@ -26862,7 +26862,7 @@
   <dimension ref="A1:P103"/>
   <sheetViews>
     <sheetView topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="A102" sqref="A102:C103"/>
+      <selection activeCell="C98" sqref="C98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -27881,7 +27881,7 @@
       </c>
       <c r="C96" s="24"/>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A97" t="str">
         <f>A96</f>
         <v>IYCF 1</v>
@@ -27889,9 +27889,14 @@
       <c r="B97" s="89" t="s">
         <v>255</v>
       </c>
-      <c r="C97" s="24"/>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C97" s="24">
+        <v>0</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A98" t="str">
         <f>'Programs to include'!A50</f>
         <v>IYCF 2</v>
@@ -27901,7 +27906,7 @@
       </c>
       <c r="C98" s="24"/>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A99" t="str">
         <f>A98</f>
         <v>IYCF 2</v>
@@ -27911,7 +27916,7 @@
       </c>
       <c r="C99" s="24"/>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A100" t="str">
         <f>'Programs to include'!A51</f>
         <v>IYCF 3</v>
@@ -27921,7 +27926,7 @@
       </c>
       <c r="C100" s="24"/>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A101" t="str">
         <f>A100</f>
         <v>IYCF 3</v>
@@ -27931,7 +27936,7 @@
       </c>
       <c r="C101" s="24"/>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A102" s="152" t="s">
         <v>271</v>
       </c>
@@ -27940,7 +27945,7 @@
       </c>
       <c r="C102" s="155"/>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A103" s="152" t="s">
         <v>271</v>
       </c>

--- a/input_spreadsheets/Tanzania/regions/InputForCode_Kusini_Pemba.xlsx
+++ b/input_spreadsheets/Tanzania/regions/InputForCode_Kusini_Pemba.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/Github Projects/Nutrition/input_spreadsheets/Tanzania/regions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{05856681-EB37-F144-9CAB-0856936336B3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{8B82372F-6CBF-3543-B1BA-D1C815A95E04}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="20740" windowHeight="11760" tabRatio="883" firstSheet="28" activeTab="28" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20740" windowHeight="11760" tabRatio="883" firstSheet="13" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Expenditure &amp; budget" sheetId="47" r:id="rId1"/>
@@ -15054,6 +15054,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B48:B50"/>
     <mergeCell ref="B25:B27"/>
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="B31:B33"/>
@@ -15064,11 +15069,6 @@
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B48:B50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -15304,8 +15304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -15419,8 +15419,8 @@
         <f>1.5*0.61</f>
         <v>0.91500000000000004</v>
       </c>
-      <c r="D8">
-        <v>10.49</v>
+      <c r="D8" s="89">
+        <v>3.78</v>
       </c>
       <c r="E8">
         <v>0.05</v>
@@ -15434,8 +15434,8 @@
         <f t="shared" ref="C9:C12" si="0">1.5*0.61</f>
         <v>0.91500000000000004</v>
       </c>
-      <c r="D9">
-        <v>10.49</v>
+      <c r="D9" s="89">
+        <v>2.6225000000000001</v>
       </c>
       <c r="E9">
         <v>0.05</v>
@@ -15449,8 +15449,8 @@
         <f t="shared" si="0"/>
         <v>0.91500000000000004</v>
       </c>
-      <c r="D10">
-        <v>10.49</v>
+      <c r="D10" s="89">
+        <v>2.6225000000000001</v>
       </c>
       <c r="E10">
         <v>0.05</v>
@@ -15464,8 +15464,8 @@
         <f t="shared" si="0"/>
         <v>0.91500000000000004</v>
       </c>
-      <c r="D11">
-        <v>10.49</v>
+      <c r="D11" s="89">
+        <v>2.6225000000000001</v>
       </c>
       <c r="E11">
         <v>0.05</v>
@@ -15479,8 +15479,8 @@
         <f t="shared" si="0"/>
         <v>0.91500000000000004</v>
       </c>
-      <c r="D12">
-        <v>10.49</v>
+      <c r="D12" s="89">
+        <v>2.6225000000000001</v>
       </c>
       <c r="E12">
         <v>0.05</v>
@@ -25500,7 +25500,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
   <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="A52" sqref="A52:D52"/>
     </sheetView>
   </sheetViews>
